--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F002A51-9437-45E0-98D2-471421FCDC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6668582-22DE-489A-971B-285ECE6B7CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="16335" windowHeight="15585" tabRatio="741" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="13">
+  <futureMetadata name="XLRICHVALUE" count="14">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -128,8 +128,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="13">
+  <valueMetadata count="14">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -169,12 +176,15 @@
     <bk>
       <rc t="1" v="12"/>
     </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="330">
   <si>
     <t>What we're doing</t>
   </si>
@@ -708,9 +718,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>1. Implement a recursive function to compute the nth Fibonacci number. The function should accept 3 arguments, two of them should have default values. The recursion begins with a single argument</t>
-  </si>
-  <si>
     <t>def fib(n):
     a, b = 0, 1
     for _ in range(n):
@@ -719,21 +726,8 @@
 fib(8)</t>
   </si>
   <si>
-    <t>2. Using a lambda, use filter() to accept a list and filter the integers that are divisible by 3. Use the modulus operator.</t>
-  </si>
-  <si>
-    <t>list1 = [3, 4, 7, 8, 9, 12, 13]
-list(filter(lambda x : x % 3 == 0, list1))</t>
-  </si>
-  <si>
-    <t>3. Using a lambda, use filter() to accept a list of pairs and accept the pairs whose elements are equal.</t>
-  </si>
-  <si>
     <t>list2 = [[1,1], [2, 5], [4, 4], [9, 9], [5, 3]]
 x = list(filter(lambda x : x[0] == x[1], list2))</t>
-  </si>
-  <si>
-    <t>4. Using a lambda, implement a map() that accepts a list of lists and returns the sums of the sublists</t>
   </si>
   <si>
     <t>list3 = [[1, 5, 3], [3, 6], [9, 11, 45, 11], [5, 2, 6, 3, 7]]
@@ -744,51 +738,12 @@
 print(emptyList)</t>
   </si>
   <si>
-    <t>5. Use the reduce() function to implement factorial, N!.</t>
-  </si>
-  <si>
-    <t>from functools import reduce
-reduce(lambda x, y: x+y, list(range(1,11)))</t>
-  </si>
-  <si>
-    <t>6. Write a function, called Convolve, that accepts three arguments. The first argument is a function. The second and third arguments will be used as arguments for the first argument, the function, by Convolve. Convolve will return the results packaged in a list. For example:</t>
-  </si>
-  <si>
     <t>def convolve(mapFunction, function1, list1):
     return list(mapFunction(function1, list1))
 convolve(map, lambda x : sum(x), list3)</t>
   </si>
   <si>
-    <t>Explanation:
-- The filter function is used to filter elements from list1 based on a condition.
-- The condition is defined using a lambda function: lambda x: x % 3 == 0. This lambda function takes a value x and returns True if x is divisible by 3, and False otherwise.
-- The filter function is applied to each element in list1. Only the elements for which the lambda function returns True are included in the result.
-- In this case, it filters out elements in list1 that are not divisible by 3.
-- The result is then converted to a list using list() and stored in the variable result.
-- So, after running this code, the result variable will contain a list of elements from list1 that are divisible by 3. In this example, the result would be [3, 9, 12].</t>
-  </si>
-  <si>
-    <t>This code filters pairs in list2 where the first and second elements are equal, creating a list x with those pairs. The lambda function checks if the first element (x[0]) is equal to the second element (x[1]).</t>
-  </si>
-  <si>
     <t>This code calculates the sum of each sublist in list3 using a lambda function (result1). The sums are then appended to a new list (emptyList), and the final result is printed.</t>
-  </si>
-  <si>
-    <t>This code defines a function named convolve that takes three parameters:
-1. mapFunction: A function that applies another function to elements of a list.
-2. function1: The function to be applied to the elements of the list.
-3. list1: The list of elements to which function1 is applied.
-- The convolve function uses mapFunction to apply function1 to each element of list1, and the result is returned as a list.
-- The provided example calls convolve with map as the mapFunction, a lambda function lambda x: sum(x) as function1, and list3 as list1. It essentially applies the sum function to each sublist in list3 using map, producing a list of the sums</t>
-  </si>
-  <si>
-    <t>Here's how the lambda function with two arguments (x and y) is used within the reduce function:
-list(range(1, 11)):  This generates a list containing the numbers from 1 to 10.
-reduce(lambda x, y: x + y, ...):  The reduce function takes two arguments: the binary function (lambda function) and an iterable.
-The lambda function, lambda x, y: x + y, specifies how to combine two elements at a time.
-The iterable is the list generated by list(range(1, 11)).
-So, during each iteration of reduce, the lambda function is applied to pairs of elements from the list. The x and y in the lambda function represent these two elements at each step of the iteration. The result of each operation becomes the new x for the next iteration, and the next element in the list becomes y. This process continues until the entire list is reduced to a single result, which is the sum of all the numbers from 1 to 10
-TLDR: when we do reduce with a list, because it does iteration, x and y automatically refer to list[0] and list[1], add them together, and then move onto the next value. It's very confusing, but it just means that we are able to loop through the list. This is kind of confusing</t>
   </si>
   <si>
     <t>Property decorator for Python methods</t>
@@ -2612,6 +2567,165 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">List of most useful methods and what they do:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n_samples = 150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Creates 150 pieces of data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n_features = 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Makes the data three dimensional (e.g. the data would be: ([3, 4, 5], [5, 6, 1], [9, 0, 1]… etc))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>centers = 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The number of clusters of data to generate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster_std = 0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - How spread out the data is. The closer to 0, the more compressed the data points, the closer to 1 the more spread
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shuffle = True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Shuffles the data once it has already been generated. It doesn't affect the data if/when it's plotted: it just randomises the order in which data appears in the dataset
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>random_state = 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Generates the same random data every time. Used for reproductability
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>center_box = (-10, 10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Makes the range of the data between -10 to 10</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">List of the most useful parameters for Kmeans and what they do:
 </t>
     </r>
@@ -2699,7 +2813,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - The number of times the operation will be run with different centroid seeds
+      <t xml:space="preserve"> - The number of times the operation will be run with different centroid seeds. It actually grabs the best of the 10 iterations, and does the max_iterations over this best one
 </t>
     </r>
     <r>
@@ -2768,8 +2882,97 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">List of most useful methods and what they do:
+    <t>Cleaning data</t>
+  </si>
+  <si>
+    <t>One of the most important things that we do within AI is we have to handle, filter, and clean the data. This can be done through a combination of removing columns which have too many empty data sets, and filling in columns which have some empty data sets, perhaps by filling the blank spaces (.filna) with .mean() if the columns have numerical data. Also could possibly drop individual sets of data if they're outliers in the data.</t>
+  </si>
+  <si>
+    <t>Create encoded data using the Scikit-learn OneHotEncoder</t>
+  </si>
+  <si>
+    <t>OneHotEncoder Features expanded</t>
+  </si>
+  <si>
+    <r>
+      <t>.categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Shows the different category names </t>
+    </r>
+  </si>
+  <si>
+    <t>OneHotEncoder after the processing</t>
+  </si>
+  <si>
+    <r>
+      <t>df["Female"] = values[:, 0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Creates new DataFrame column called females and assigns individuals who were female to have the value 1 in this column</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+df["Male"] = values[:, 1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Same thing but for males</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+df.drop(columns=["Sex"])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Drop the "Sex" column</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Import OneHotEncoder into the program
 </t>
     </r>
     <r>
@@ -2781,7 +2984,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>n_samples = 150</t>
+      <t>from sklearn.preprocessing import OneHotEncoder</t>
     </r>
     <r>
       <rPr>
@@ -2791,7 +2994,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Creates 150 pieces of data
+      <t xml:space="preserve">
+# Create an instance of OneHotEncoder
 </t>
     </r>
     <r>
@@ -2803,7 +3007,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>n_features = 3</t>
+      <t>encoder = OneHotEncoder()</t>
     </r>
     <r>
       <rPr>
@@ -2813,7 +3017,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Makes the data three dimensional (e.g. the data would be: ([3, 4, 5], [5, 6, 1], [9, 0, 1]… etc))
+      <t xml:space="preserve">
+# Fit and transform your categorical data
 </t>
     </r>
     <r>
@@ -2825,7 +3030,449 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>centers = 3</t>
+      <t>values = encoder.fit_transform(categorical_data)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enc.categories_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Print out the categories of values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We first of all import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OneHotEncoder </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.preprocessing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Next, we have to create the encoder by creating an encoder object with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OneHotEncoder().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> There are a number of parameters we can pass through, but the primary ones will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handle_unknown="ignore"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sparce="false" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(returns data in a dense array format, to allow for all stored elements in the data). Finally, we can produced the encoded data using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encoder.fit_transform([dataset])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The encoded data can be saved to a variable, let's say values, and within it will contain all the different types of the column (e.g. it will have "male" and "female" for each of the data points). After this you can add this data to your columns individually. One of the other key things to know about is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.categories_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">attribute, which will print out all of the column types that you have, to help you fill up the DataFrame afterwards (e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>categories_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> might contain ["female", "male"], which means that when you go to insert new values in the columns, you need to know that the female label is [0] and the male label is [1].</t>
+    </r>
+  </si>
+  <si>
+    <t>OneHotEncoding isn't used at the final step. It's more just a tool to help you before the data is processed, so it's a tool that is then used in other machine learning algorithms/models.</t>
+  </si>
+  <si>
+    <t>Implement a recursive function to compute the nth Fibonacci number. The function should accept 3 arguments, two of them should have default values. The recursion begins with a single argument</t>
+  </si>
+  <si>
+    <t>Using a lambda, use filter() to accept a list and filter the integers that are divisible by 3. Use the modulus operator.</t>
+  </si>
+  <si>
+    <t>Using a lambda, use filter() to accept a list of pairs and accept the pairs whose elements are equal.</t>
+  </si>
+  <si>
+    <t>Using a lambda, implement a map() that accepts a list of lists and returns the sums of the sublists</t>
+  </si>
+  <si>
+    <t>Use the reduce() function to implement factorial, N!.</t>
+  </si>
+  <si>
+    <t>Write a function, called Convolve, that accepts three arguments. The first argument is a function. The second and third arguments will be used as arguments for the first argument, the function, by Convolve. Convolve will return the results packaged in a list. For example:</t>
+  </si>
+  <si>
+    <t>Simple lambda</t>
+  </si>
+  <si>
+    <t>z = lambda x: x ** 2
+print(z(8))
+# Will print 64</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The order of lambda used in this simple way is:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lambda aurguments: expression
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the example to the left, we are passing through 8 as our argument, and we are ouputting 64. The expression, once it's been calcluated, looks like: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda 8 : 8**2</t>
+    </r>
+  </si>
+  <si>
+    <t>list1 = [3, 4, 7, 8, 9, 12, 13]
+output = list(filter(lambda x : x % 3 == 0, list1))
+print(output)
+# Will print out [2, 4, 6, 8]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The code filters elements from list1 that are divisible by 3. Here's a simplified breakdown:
+1. A lambda function checks if a number is divisible by 3: lambda x: x % 3 == 0.
+2. The filter() function applies this lambda function to each element in list1.
+3. Only elements for which the lambda function returns True (i.e., those divisible by 3) are included.
+4. The filtered elements are converted to a list and stored in the variable result.
+5. After running the code, result will contain a list of elements from list1 that are divisible by 3, e.g., [3, 9, 12].
+The structure of the entire statement is like this:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list(filter(lambda argument: expression, entire list)), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>where the list has the same name, and is in fact in direct reference to the actual list that we're bringing in.</t>
+    </r>
+  </si>
+  <si>
+    <t>from functools import reduce
+p = [1, 2, 3, 4, 5, 6, 7, 8, 9]
+print(reduce (lambda x, y: x + y, p))
+# prints 45</t>
+  </si>
+  <si>
+    <t>In the expression reduce(lambda x, y: x + y, list(range(1, 11))), the lambda function lambda x, y: x + y specifies how to combine two elements at a time. When reduce() is used with a list, it iterates through the list, and x and y automatically represent the first two elements in the list. The lambda function then adds them together. This process continues, with the result of each operation becoming the new x for the next iteration, and the next element in the list becoming y. This iteration continues until the entire list is reduced to a single result, which is the sum of all the numbers from 1 to 10.
+Reduce is used for cumulative frequencies. If we have a list with three values, then in the first round, x and y will actually represent the first and second value the first time. On the second round, x will represent the result of the previous round, and y will represent the third value.</t>
+  </si>
+  <si>
+    <t>This code filters pairs in list2 where the first and second elements are equal, creating a list x with those pairs. The lambda function checks if the first element (x[0]) is equal to the second element (x[1]).
+This is a similar example to the former list, but now that we're iterating through a list of lists, each x (each item we go through) now has multiple items within it. It basically checks if the expression is true, and if it is, then append it to the list. If not, then don't append it. This is the reason why if statements are used for filters.</t>
+  </si>
+  <si>
+    <t>This code defines a function called convolve that takes three parameters:
+- mapFunction: A function that applies another function to elements of a list.
+- function1: The function to be applied to the elements of the list.
+- list1: The list of elements to which function1 is applied.
+The convolve function utilizes mapFunction to apply function1 to each element of list1, and then returns the result as a list. In the provided example, convolve is invoked with map as the mapFunction, a lambda function lambda x: sum(x) as function1, and list3 as list1. Essentially, it applies the sum function to each sublist in list3 using map, resulting in a list of sums.
+Basically, it's like the filter function, but instead of checking for true or false, it just appends it to the list.</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There are two main stages: the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classification algorithm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">classication model; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the former helping to build the latter. There are multiple types of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classification algorithms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that exist, which can be used for building a classification model. You could also have a situation where you build an initial </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>classification model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it works normally, but then you get more training examples, and you may find it in your best interest to rebuild a new classification model.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A form of supervised learning, it consists of finding a model that is able to predict the value of a target (class) attribute of an example based on the values of a set of predictor attributes. E.g. for breast cancer, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">predictor attributes </t>
     </r>
     <r>
       <rPr>
@@ -2835,95 +3482,452 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - The number of clusters of data to generate
+      <t xml:space="preserve">would be left/right breast, tumour size, age, and whether it's been irradiated or not, and the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class attribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the recurrence of breast cancer. This supervised learning relies on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (basically, relies on real world data that already exists. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Past data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) in order to predict the class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of a test set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>future data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from sklearn.tree import DecisionTreeClassifier
+# prepares the training data
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cluster_std = 0.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">X_train = iris_data.loc[:, 'sepal length':'petal width']
+y_train = iris_data['class']
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># builds the classifier
+tree = DecisionTreeClassifier()
+tree.fit(X_train, y_train)
+# Test the items
+tree.score(X_train2, Y_train2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Export the tree data as text, and show the DecisionTree data as a plot</t>
+  </si>
+  <si>
+    <t>from sklearn.tree import export_text
+from sklearn.tree import plot_tree
+# Export as text data
+text_representation = export_text(tree)
+print(text_representation)
+# graphic representation
+fig = plt.figure(figsize=(25,20))
+_ = plot_tree(tree, feature_names=columns, class_names=y_train.values, filled=True)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One of the most common methods of working with predictor attributes (X_train) and class attributes (Y_train) is using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DecisionTreeClassifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> module in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The predictor attributes must have all the data properly filtered (we've selected all the data using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colon :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), and include all the columns (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[first column]: [to the last column of the predictor attribute]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). We then map this to the class attribute, which is only allowed to be one column of data. Afterwards, we build the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DecisionTreeClassifier()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, give it a name, and then fit the X_train and Y_train using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tree.fit(X_train, Y_train)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - How spread out the data is. The closer to 0, the more compressed the data points, the closer to 1 the more spread
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shuffle = True</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+      <t xml:space="preserve">
+Finally, when we use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tree.score(x, y)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this produces a tree score, a number between 0 and 1 to see how accurate our model is: 0 being 100% wrong, 1 being 100% correct.</t>
+    </r>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>A form of supervised learning, it is similar to classification, but not quite the same. It consists of finding a model that maps a given input to a numeric prediction (e.g. like attempting to predict house prices using a bunch of categories such as location, number of rooms, size, etc). The class attributre is a continuous variable, and will provide you with a real number</t>
+  </si>
+  <si>
+    <t>Lineal model for regression</t>
+  </si>
+  <si>
+    <t># Import the module
+from sklearn import linear_model
+# Create the linear regression model
+regressor = linear_model.LinearRegression()
+regressor.fit(X_train, y_train)
+# shows the coefficients of the linear model
+regressor.coef_</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DecisionTreeClassifier</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We start by importing the module, before creating our regressor. Next, we </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Shuffles the data once it has already been generated. It doesn't affect the data if/when it's plotted: it just randomises the order in which data appears in the dataset
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>random_state = 0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Generates the same random data every time. Used for reproductability
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>center_box = (-10, 10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+      <t xml:space="preserve"> the data using our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Makes the range of the data between -10 to 10</t>
+      <t xml:space="preserve">X_train </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> model. Finally, we can see the relative weights of each of the columns using the relative weights using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.coef_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -2931,12 +3935,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3057,6 +4082,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3145,32 +4179,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3179,61 +4240,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3242,10 +4276,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3255,6 +4310,35 @@
   <dxfs count="106">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3280,35 +4364,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4049,7 +5104,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -4102,6 +5157,10 @@
     <v>12</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -4129,6 +5188,7 @@
   <rel r:id="rId11"/>
   <rel r:id="rId12"/>
   <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
 </richValueRels>
 </file>
 
@@ -4175,8 +5235,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}" name="Table210" displayName="Table210" ref="A1:D7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:D7" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}" name="Table210" displayName="Table210" ref="A1:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:D10" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{23F4172E-BA4C-4B53-8A90-E0059ED1DE4A}" name="Concepts" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{04ADC2BE-761C-4A23-BD42-73FBD7BB9ACC}" name="General Understanding" dataDxfId="11"/>
@@ -4188,22 +5248,22 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}" name="Table114" displayName="Table114" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
-  <autoFilter ref="A1:E8" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}" name="Table114" displayName="Table114" ref="A1:E12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="A1:E12" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9DCDC563-2DFF-40C4-9194-5C07503E012F}" name="What we're doing" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D5AE45F1-A084-45BD-B4F4-32098DA0FE85}" name="Code" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B8842199-257D-476D-91B8-BF5565E0CEB6}" name="Explained" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A56794F9-07D7-460B-9613-488C3E6D3E08}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{58712703-E0DE-497F-99CA-53F643C2130A}" name="Images" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9DCDC563-2DFF-40C4-9194-5C07503E012F}" name="What we're doing" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D5AE45F1-A084-45BD-B4F4-32098DA0FE85}" name="Code" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B8842199-257D-476D-91B8-BF5565E0CEB6}" name="Explained" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{A56794F9-07D7-460B-9613-488C3E6D3E08}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{58712703-E0DE-497F-99CA-53F643C2130A}" name="Images" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}" name="Table6" displayName="Table6" ref="A1:C8" totalsRowShown="0" headerRowDxfId="96">
-  <autoFilter ref="A1:C8" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}" name="Table6" displayName="Table6" ref="A1:C9" totalsRowShown="0" headerRowDxfId="96">
+  <autoFilter ref="A1:C9" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{19453ECD-E5C7-401A-B7FC-87A649435C5C}" name="Description" dataDxfId="95"/>
     <tableColumn id="2" xr3:uid="{1919C35A-308E-40D1-AAC4-2CB4DF436B7C}" name="Code" dataDxfId="94"/>
@@ -4572,8 +5632,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4614,7 +5674,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
@@ -4628,12 +5688,12 @@
         <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="120">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>111</v>
@@ -4642,7 +5702,7 @@
         <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="225">
@@ -4672,82 +5732,82 @@
     </row>
     <row r="7" spans="1:5" ht="165">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="270">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="180">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="90">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="180">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="210">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4797,13 +5857,13 @@
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="19" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4852,32 +5912,32 @@
     </row>
     <row r="2" spans="1:5" ht="105">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4890,26 +5950,25 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87179907-4FD1-4D78-B59B-9D41D9D2BE6B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="2" max="3" width="80.28515625" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>3</v>
@@ -4918,9 +5977,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="110.25" customHeight="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -4928,63 +5987,99 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="105">
+    <row r="3" spans="1:4" ht="60">
       <c r="A3" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
-    <row r="4" spans="1:4" ht="165">
+    <row r="4" spans="1:4" ht="105">
       <c r="A4" s="24" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D4" s="24" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="117.75" customHeight="1">
+    <row r="5" spans="1:4" ht="60">
       <c r="A5" s="24" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="240">
+    <row r="6" spans="1:4" ht="150">
       <c r="A6" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>296</v>
-      </c>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:4" ht="150">
+    <row r="7" spans="1:4" ht="105">
       <c r="A7" s="24" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="24"/>
+        <v>274</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>301</v>
+      </c>
       <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="90">
+      <c r="A8" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="105">
+      <c r="A9" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="75">
+      <c r="A10" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4996,10 +6091,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B3B599-2C6A-4CA8-B2F0-63091B448B87}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5031,38 +6126,38 @@
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="31" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="195">
       <c r="A3" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>290</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>303</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="360">
       <c r="A4" s="32" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -5070,47 +6165,101 @@
     </row>
     <row r="5" spans="1:5" ht="240">
       <c r="A5" s="31" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>302</v>
+        <v>286</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>291</v>
       </c>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" ht="405">
       <c r="A6" s="32" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+    <row r="7" spans="1:5" ht="195">
+      <c r="A7" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>300</v>
+      </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+    <row r="8" spans="1:5" ht="60">
+      <c r="A8" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5" ht="180">
+      <c r="A10" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" ht="165">
+      <c r="A11" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5" ht="135">
+      <c r="A12" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5123,17 +6272,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5801CF83-070A-43B8-8C37-B014B6412981}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -5150,83 +6299,95 @@
     </row>
     <row r="2" spans="1:3" ht="90">
       <c r="A2" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="75">
+      <c r="A3" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="180">
+      <c r="A4" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="120">
+      <c r="A5" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="150">
-      <c r="A3" s="14" t="s">
+      <c r="C5" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90">
+      <c r="A6" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C6" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="180">
+      <c r="A7" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="180">
+      <c r="A8" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45">
-      <c r="A4" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="90">
-      <c r="A5" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="285">
-      <c r="A6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="135">
-      <c r="A7" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="165">
-      <c r="A8" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>237</v>
+      <c r="C8" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="165">
+      <c r="A9" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5307,13 +6468,13 @@
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
@@ -5333,16 +6494,16 @@
     </row>
     <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -5505,13 +6666,13 @@
     </row>
     <row r="19" spans="1:5" ht="135">
       <c r="A19" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5563,79 +6724,79 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="105">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="180">
       <c r="A8" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5684,71 +6845,71 @@
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5813,13 +6974,13 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5875,7 +7036,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -5910,51 +7071,51 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="210">
       <c r="A13" s="22" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="165">
       <c r="A14" s="22" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="150">
       <c r="A15" s="22" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="23" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -6036,82 +7197,82 @@
     </row>
     <row r="5" spans="1:5" ht="60">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
       <c r="A9" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
       <c r="A10" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75">
       <c r="A11" s="22" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6160,23 +7321,23 @@
     </row>
     <row r="2" spans="1:5" ht="255">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6234,7 +7395,7 @@
         <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135">
@@ -6242,7 +7403,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>90</v>
@@ -6287,7 +7448,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>

--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6668582-22DE-489A-971B-285ECE6B7CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1854FDF9-A803-4094-A131-A1726172B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16335" windowHeight="15585" tabRatio="741" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="14">
+  <futureMetadata name="XLRICHVALUE" count="15">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -135,8 +135,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="14">
+  <valueMetadata count="15">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -179,12 +186,15 @@
     <bk>
       <rc t="1" v="13"/>
     </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="340">
   <si>
     <t>What we're doing</t>
   </si>
@@ -2972,101 +2982,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># Import OneHotEncoder into the program
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>from sklearn.preprocessing import OneHotEncoder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-# Create an instance of OneHotEncoder
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>encoder = OneHotEncoder()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-# Fit and transform your categorical data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>values = encoder.fit_transform(categorical_data)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enc.categories_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Print out the categories of values</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">We first of all import </t>
     </r>
     <r>
@@ -3930,17 +3845,248 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Import OneHotEncoder into the program
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from sklearn.preprocessing import OneHotEncoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Create an instance of OneHotEncoder
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encoder = OneHotEncoder()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Fit and transform your categorical data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>values = encoder.fit_transform(categorical_data)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enc.categories_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Print out the categories of values</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you want to select specific items for x_training, you can write it in like this:
+X_train = iris_data.loc[:, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["attribute1", "attribute2", "attribute4", "attribute5",… etc]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Confusion matrix</t>
+  </si>
+  <si>
+    <t>Train and test partition</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from sklearn.model_selection import train_test_split
+X = iris_data.loc[:, 'sepal length':'petal width']
+y = iris_data['class']
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# splits the data in training + testing
+X_train, X_test, y_train, y_test = train_test_split(X, y, random_state=0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># builds the classifier
+tree = DecisionTreeClassifier()
+tree.fit(X_train, y_train)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# evaluates on the test data
+tree.score(X_test, y_test)
+# displays the confusion matrix
+predictions = tree.predict(X_test)
+cm = confusion_matrix(y_test, predictions, labels=tree.classes_)
+disp = ConfusionMatrixDisplay(confusion_matrix=cm, display_labels=tree.classes_)
+_ = disp.plot()</t>
+    </r>
+  </si>
+  <si>
+    <t>from sklearn.metrics import confusion_matrix, ConfusionMatrixDisplay
+predictions = tree.predict(X_train)
+cm = confusion_matrix(y_train, predictions, labels=tree.classes_)
+disp = ConfusionMatrixDisplay(confusion_matrix=cm, display_labels=tree.classes_)
+# displays the matrix
+_ = disp.plot()</t>
+  </si>
+  <si>
+    <t>A confusion matrix is just a way to see where errors in the model have been made. You have a chart, in which you hope that the only section that is highlighted is the diagonal bit (because you hope that there aren't any outliers in the data).</t>
+  </si>
+  <si>
+    <t>We can train and test the partition that we build using this method. What we're doing we we're splitting the dataset into two sections: a portion for testing, and a portion for training. It gives a better indication of the quality of the model.</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>from sklearn.ensemble import RandomForestClassifier
+forest = RandomForestClassifier(n_estimators=10, random_state=0)
+forest.fit(x_train, y_train)
+forest.score(x_train, y_train)</t>
+  </si>
+  <si>
+    <t>A RandomForestClassifier does a similar thing to the DecisionTreeClassifier, but it actually uses multiple decision trees (uses 10 in the example specified). The RandomForestClassifier requires more processing, but is also generally speaking more accurate.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4179,59 +4325,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4240,34 +4398,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4276,31 +4422,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5104,7 +5256,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="15">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -5161,6 +5313,10 @@
     <v>13</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -5189,6 +5345,7 @@
   <rel r:id="rId12"/>
   <rel r:id="rId13"/>
   <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
 </richValueRels>
 </file>
 
@@ -5248,8 +5405,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}" name="Table114" displayName="Table114" ref="A1:E12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="A1:E12" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}" name="Table114" displayName="Table114" ref="A1:E15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="A1:E15" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9DCDC563-2DFF-40C4-9194-5C07503E012F}" name="What we're doing" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{D5AE45F1-A084-45BD-B4F4-32098DA0FE85}" name="Code" dataDxfId="3"/>
@@ -6043,7 +6200,7 @@
         <v>274</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D7" s="24"/>
     </row>
@@ -6059,22 +6216,22 @@
     </row>
     <row r="9" spans="1:4" ht="105">
       <c r="A9" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>317</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>318</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="75">
       <c r="A10" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>324</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>325</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="24" t="e" vm="14">
@@ -6091,10 +6248,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B3B599-2C6A-4CA8-B2F0-63091B448B87}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6193,11 +6350,11 @@
       <c r="A7" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>299</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>300</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
@@ -6226,40 +6383,83 @@
     </row>
     <row r="10" spans="1:5" ht="180">
       <c r="A10" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="31"/>
+        <v>322</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>330</v>
+      </c>
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="165">
       <c r="A11" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>321</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>322</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" ht="135">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="315">
+      <c r="A13" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" ht="105">
+      <c r="A14" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" ht="135">
+      <c r="A15" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="C15" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6299,7 +6499,7 @@
     </row>
     <row r="2" spans="1:3" ht="90">
       <c r="A2" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>122</v>
@@ -6308,40 +6508,40 @@
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="36" t="s">
         <v>309</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180">
       <c r="A4" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120">
       <c r="A5" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90">
       <c r="A6" s="36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>124</v>
@@ -6352,24 +6552,24 @@
     </row>
     <row r="7" spans="1:3" ht="180">
       <c r="A7" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="180">
       <c r="A8" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165">

--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1854FDF9-A803-4094-A131-A1726172B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7EBDB7-552B-4449-B41A-F508AA8B34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" tabRatio="741" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="351">
   <si>
     <t>What we're doing</t>
   </si>
@@ -884,60 +884,10 @@
     <t>There is another way to grab items from a multi-dimensional matrix using x[1][1] (instead of the CLASSIC x[1, 1]), but the former method is much slower than the latter.</t>
   </si>
   <si>
-    <t>Getting a returned list of the values which are less than five from an array</t>
-  </si>
-  <si>
-    <t>array = array[(1, 2, 3, 4, 5, 6, 7, 8)]
-np.count_nonzero(array &lt; 6)
-#output: 5</t>
-  </si>
-  <si>
-    <t>We are going through an array and returning the number of values which are less than 6. In this instance, there are 5 values which fulfill this</t>
-  </si>
-  <si>
     <t>np.sum(array &lt; 6, axis=1)</t>
   </si>
   <si>
-    <t>Count how many values there are than are less than a certain value. We end up with a returned integer value.</t>
-  </si>
-  <si>
-    <t>If we want to count the rows, we use axis=1. If we want columns, we use axis=2</t>
-  </si>
-  <si>
-    <t>Grab all items which are less than a certain value</t>
-  </si>
-  <si>
-    <t>Grab the sum of the np array which fulfill a certain criteria</t>
-  </si>
-  <si>
-    <t>We can go through either an array or a matrix, and with [x &lt; 6], we are returning a new array with only items which are less than 6. Instead of returning an integer value of the total number under 6 (like before), this one we're grabbing the raw data.</t>
-  </si>
-  <si>
-    <t>x[x &lt; 6]
-y[(y &gt; 2) &amp; (y &lt; 6)]</t>
-  </si>
-  <si>
-    <t>Grab the sum of numbers between certain values:
-np.count_nonzero([(array &gt; 2) &amp; (array &lt; 8)])</t>
-  </si>
-  <si>
-    <t>Grab multiple specific values given the index</t>
-  </si>
-  <si>
-    <t>[array[3], array[7], array[2])
-array[[3, 7, 2]]</t>
-  </si>
-  <si>
-    <t>There's two ways to grab the data. Both about as efficient as one another, but written differently</t>
-  </si>
-  <si>
-    <t>Change specific values in a list given their values</t>
-  </si>
-  <si>
     <t>array[array == 4] = -5</t>
-  </si>
-  <si>
-    <t>We are checking for each item in the array where the value is equal to 4, and then changing it to -5</t>
   </si>
   <si>
     <t>Load an array from a file</t>
@@ -1010,13 +960,6 @@
 data["01-01-2022": "02-02-2022:2] - Grab everything between two dates, and do steps of two.</t>
   </si>
   <si>
-    <t>A few mathematical expressions</t>
-  </si>
-  <si>
-    <t>np.mean(array, axis=1) - Grab the mean of each row. If you wanted the highest value in a column, you would have to change axis to 0.
-np.max(array) - Grab the largest value out of a numpy list of values</t>
-  </si>
-  <si>
     <t>Load numpy data from a .txt or file, forcing the split at every comma value</t>
   </si>
   <si>
@@ -1057,12 +1000,6 @@
   </si>
   <si>
     <t>We can flatten a multi-dimensional array to be 1D using the .flatten() method.</t>
-  </si>
-  <si>
-    <t>arr_2d = np.array([[1, 2, 3],
-                   [4, 5, 6]])
-# Flatten using flatten() method
-arr_flattened = arr_2d.flatten() // [1 2 3 4 5 6]</t>
   </si>
   <si>
     <t>Find the largest value of a multi-dimensional array by its index value (instead of tuple coordinates). Then reverse the process</t>
@@ -3726,15 +3663,6 @@
     <t>Lineal model for regression</t>
   </si>
   <si>
-    <t># Import the module
-from sklearn import linear_model
-# Create the linear regression model
-regressor = linear_model.LinearRegression()
-regressor.fit(X_train, y_train)
-# shows the coefficients of the linear model
-regressor.coef_</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Using a </t>
     </r>
@@ -3748,101 +3676,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>DecisionTreeClassifier</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We start by importing the module, before creating our regressor. Next, we </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the data using our </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">X_train </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Y_train</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> model. Finally, we can see the relative weights of each of the columns using the relative weights using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.coef_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
     </r>
   </si>
   <si>
@@ -4062,17 +3895,442 @@
   <si>
     <t>A RandomForestClassifier does a similar thing to the DecisionTreeClassifier, but it actually uses multiple decision trees (uses 10 in the example specified). The RandomForestClassifier requires more processing, but is also generally speaking more accurate.</t>
   </si>
+  <si>
+    <t>Key idea: we are looking for a numerical output, instead of relying on classification. This is most useful for things such as if you are attempting to calculate future financial data using old data.</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Code Example</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>Count values less than five in an array</t>
+  </si>
+  <si>
+    <t>Counts the number of values in the array that are less than 6. In this case, it returns 5.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To count values between certain bounds: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>np.count_nonzero((array &gt; 2) &amp; (array &lt; 8))</t>
+    </r>
+  </si>
+  <si>
+    <t>Sum values that meet a condition in the array</t>
+  </si>
+  <si>
+    <t>Sums the values in each row of the array that are less than 6.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>axis=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to sum values column-wise.</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter array elements less than a certain value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creates a new array containing only the elements from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that are less than 6. For </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, it retrieves elements between 2 and 6.</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Retrieve multiple specific values by their indices</t>
+  </si>
+  <si>
+    <t>Retrieves values at specific indices from the array. Both methods are efficient, providing the same result.</t>
+  </si>
+  <si>
+    <t>Replace specific values in an array with a new value</t>
+  </si>
+  <si>
+    <t>Replaces all occurrences of the value 4 with -5 in the array.</t>
+  </si>
+  <si>
+    <t>Perform mathematical operations on arrays</t>
+  </si>
+  <si>
+    <r>
+      <t>np.mean(array, axis=0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would give the mean of each column. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>np.max(array, axis=0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would find the maximum value in each column.</t>
+    </r>
+  </si>
+  <si>
+    <t># Import the module
+from sklearn import linear_model
+# Create the linear regression model
+regressor = linear_model.LinearRegression()
+regressor.fit(X_train, y_train)
+# shows the coefficients of the linear model
+regressor.coef_
+# Get the score of the linear regression
+regressor.score(X_train, Y_train)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We start by importing the module, before creating our regressor. Next, we </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the data using our </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">X_train </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> model. Finally, we can see the relative weights of each of the columns using the relative weights using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.coef_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Finally, we can use .score(), providing x_train and y_train to get the score of the data</t>
+    </r>
+  </si>
+  <si>
+    <t>DecisionTreeRegressor</t>
+  </si>
+  <si>
+    <t>from sklearn.tree import DecisionTreeRegressor
+regressor = DecisionTreeRegressor()
+regressor.fit(X_train, Y_train)
+regressor.score(x_train, y_train)</t>
+  </si>
+  <si>
+    <t>Plotting a DecisionTreeRegressor on a graph</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import matplotlib.pyplot as plt
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># predictions from the regressor
+y = regressor.predict(X_train)
+# data point indices
+X = np.arange(len(y_train))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plt.figure(figsize=(20, 10))
+plt.scatter(X, y_train, s=20, edgecolor="black", c="darkorange", label="data")
+plt.plot(X, y, color="cornflowerblue", label="Regressor", linewidth=2)
+plt.xlabel("data point")
+plt.ylabel("target")
+plt.title("Decision Tree Regression")
+plt.legend()
+plt.show()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">array = np.array([1, 2, 3, 4, 5, 6, 7, 8])
+np.count_nonzero(array &lt; 6)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+  </si>
+  <si>
+    <t>x[x &lt; 6]
+y[(y &gt; 2) &amp; (y &lt; 6)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">array[[3, 7, 2]]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>[array[3], array[7], array[2]]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>np.mean(array, axis=1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Compute the mean of each row.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>np.max(array)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Find the maximum value in the array.</t>
+    </r>
+  </si>
+  <si>
+    <t>arr_2d = np.array([[1, 2, 3], [4, 5, 6]])
+# Flatten using flatten() method
+arr_flattened = arr_2d.flatten() // [1 2 3 4 5 6]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4237,6 +4495,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4325,59 +4588,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4386,34 +4661,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4422,44 +4685,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="99">
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4929,18 +5207,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -4980,12 +5246,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5141,9 +5401,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5350,14 +5607,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}" name="Table5" displayName="Table5" ref="A1:E13" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102">
-  <autoFilter ref="A1:E13" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F494DF5D-709B-4939-BEF8-065BE31D54A5}" name="What we're doing" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{2CEA16F5-1272-49B8-8D02-F136DC5C9E39}" name="Code" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{9AC276B8-C735-44DB-8758-22771354F751}" name="Explained" dataDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{4CA17A71-CD05-4F1E-802C-F24401AB0A68}" name="Notes" dataDxfId="98"/>
-    <tableColumn id="5" xr3:uid="{07F04595-DA3F-4F84-B6C4-AE2DEE22D5B2}" name="Images" dataDxfId="97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}" name="Table5" displayName="Table5" ref="A1:D13" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
+  <autoFilter ref="A1:D13" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F494DF5D-709B-4939-BEF8-065BE31D54A5}" name="What we're doing" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{2CEA16F5-1272-49B8-8D02-F136DC5C9E39}" name="Code" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{9AC276B8-C735-44DB-8758-22771354F751}" name="Explained" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{4CA17A71-CD05-4F1E-802C-F24401AB0A68}" name="Notes" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5405,8 +5661,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}" name="Table114" displayName="Table114" ref="A1:E15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
-  <autoFilter ref="A1:E15" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}" name="Table114" displayName="Table114" ref="A1:E17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="A1:E17" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9DCDC563-2DFF-40C4-9194-5C07503E012F}" name="What we're doing" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{D5AE45F1-A084-45BD-B4F4-32098DA0FE85}" name="Code" dataDxfId="3"/>
@@ -5419,53 +5675,51 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}" name="Table6" displayName="Table6" ref="A1:C9" totalsRowShown="0" headerRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}" name="Table6" displayName="Table6" ref="A1:C9" totalsRowShown="0" headerRowDxfId="90">
   <autoFilter ref="A1:C9" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{19453ECD-E5C7-401A-B7FC-87A649435C5C}" name="Description" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{1919C35A-308E-40D1-AAC4-2CB4DF436B7C}" name="Code" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{2A8D9EA6-BEB2-42CE-A5DC-6159F47611E6}" name="Explained" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{19453ECD-E5C7-401A-B7FC-87A649435C5C}" name="Description" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{1919C35A-308E-40D1-AAC4-2CB4DF436B7C}" name="Code" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{2A8D9EA6-BEB2-42CE-A5DC-6159F47611E6}" name="Explained" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0" dataDxfId="86">
   <autoFilter ref="A1:E19" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{87C5A738-EC60-406D-9D4A-8EC749FFE9F1}" name="What we're doing" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{CF6B9D06-2B28-4E68-809D-AF9F80440C99}" name="Code" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{ED32AAD6-9279-465D-991A-3924E44CDD57}" name="Explained" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{9AB07762-9752-406E-A0CE-803209CF114D}" name="Notes" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{D73A5CB7-CB32-4811-AD17-11CE89C449B9}" name="Images" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{87C5A738-EC60-406D-9D4A-8EC749FFE9F1}" name="What we're doing" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{CF6B9D06-2B28-4E68-809D-AF9F80440C99}" name="Code" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{ED32AAD6-9279-465D-991A-3924E44CDD57}" name="Explained" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{9AB07762-9752-406E-A0CE-803209CF114D}" name="Notes" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{D73A5CB7-CB32-4811-AD17-11CE89C449B9}" name="Images" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9229FB3D-E830-4CF1-A3A1-1E2B7FE62321}" name="Table7" displayName="Table7" ref="A1:E8" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
-  <autoFilter ref="A1:E8" xr:uid="{9229FB3D-E830-4CF1-A3A1-1E2B7FE62321}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{433BA0DF-A1DB-4C86-8F48-BB452AEA9DEF}" name="What we're doing" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{01BD8D97-4A43-4078-B15D-8F9B50E4B231}" name="Code" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{B8DADEC4-F3FD-4B3B-A2FD-72471339A717}" name="Explained" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{CB309AD3-34D7-49E4-A0C5-CB4541CDB7D6}" name="Notes" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{3AB8068F-1FAC-4A91-A57E-65A4C0282CD6}" name="Images" dataDxfId="78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9229FB3D-E830-4CF1-A3A1-1E2B7FE62321}" name="Table7" displayName="Table7" ref="A1:C8" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77">
+  <autoFilter ref="A1:C8" xr:uid="{9229FB3D-E830-4CF1-A3A1-1E2B7FE62321}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{433BA0DF-A1DB-4C86-8F48-BB452AEA9DEF}" name="What we're doing" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{01BD8D97-4A43-4078-B15D-8F9B50E4B231}" name="Code" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{B8DADEC4-F3FD-4B3B-A2FD-72471339A717}" name="Explained" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{984FD9CF-0316-4C2B-9318-7C910E4A996F}" name="Table8" displayName="Table8" ref="A1:E7" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{984FD9CF-0316-4C2B-9318-7C910E4A996F}" name="Table8" displayName="Table8" ref="A1:E7" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70">
   <autoFilter ref="A1:E7" xr:uid="{984FD9CF-0316-4C2B-9318-7C910E4A996F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54F9D04F-B818-4DD7-88D3-6AFFE42B8DF6}" name="What we're doing" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{57C92769-229A-4611-B86C-06BB69896293}" name="Code" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{BB83E5E3-2322-4B23-8FF4-3DE748564970}" name="Explained" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{CA13C988-4490-4344-8A3D-31B4A3CB0036}" name="Notes" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{54F9D04F-B818-4DD7-88D3-6AFFE42B8DF6}" name="Task Description"/>
+    <tableColumn id="2" xr3:uid="{57C92769-229A-4611-B86C-06BB69896293}" name="Code Example"/>
+    <tableColumn id="3" xr3:uid="{BB83E5E3-2322-4B23-8FF4-3DE748564970}" name="Explanation"/>
+    <tableColumn id="4" xr3:uid="{CA13C988-4490-4344-8A3D-31B4A3CB0036}" name="Additional Notes"/>
     <tableColumn id="5" xr3:uid="{C8C5DEF9-6E72-46A3-800B-3046F99C7BD5}" name="Images" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5787,10 +6041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F423F3CB-4ABB-497C-821E-58368615CB34}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5799,11 +6053,10 @@
     <col min="2" max="2" width="60.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5816,11 +6069,8 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="150">
+    </row>
+    <row r="2" spans="1:4" ht="150">
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
@@ -5831,10 +6081,10 @@
         <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -5845,12 +6095,12 @@
         <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="120">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>111</v>
@@ -5859,10 +6109,10 @@
         <v>112</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="225">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="225">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -5876,7 +6126,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="300">
+    <row r="6" spans="1:4" ht="300">
       <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
@@ -5887,7 +6137,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="165">
+    <row r="7" spans="1:4" ht="165">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -5898,7 +6148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="270">
+    <row r="8" spans="1:4" ht="270">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -5909,7 +6159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="180">
+    <row r="9" spans="1:4" ht="180">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -5920,10 +6170,10 @@
         <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="90">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90">
       <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
@@ -5931,7 +6181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="1" t="s">
         <v>138</v>
       </c>
@@ -5942,29 +6192,29 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="180">
+    <row r="12" spans="1:4" ht="180">
       <c r="A12" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="210">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="210">
       <c r="A13" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6014,13 +6264,13 @@
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="19" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6069,32 +6319,32 @@
     </row>
     <row r="2" spans="1:5" ht="105">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6109,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87179907-4FD1-4D78-B59B-9D41D9D2BE6B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6122,10 +6372,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>3</v>
@@ -6136,7 +6386,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6146,23 +6396,23 @@
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="24" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="105">
       <c r="A4" s="24" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D4" s="24" t="e" vm="12">
         <v>#VALUE!</v>
@@ -6170,10 +6420,10 @@
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="24" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="e" vm="13">
@@ -6182,58 +6432,60 @@
     </row>
     <row r="6" spans="1:4" ht="150">
       <c r="A6" s="24" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="105">
       <c r="A7" s="24" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="90">
       <c r="A8" s="35" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="105">
       <c r="A9" s="24" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="75">
       <c r="A10" s="38" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="24"/>
+        <v>306</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>320</v>
+      </c>
       <c r="D10" s="24" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
@@ -6248,10 +6500,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B3B599-2C6A-4CA8-B2F0-63091B448B87}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6283,38 +6535,38 @@
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="31" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="195">
       <c r="A3" s="31" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="360">
       <c r="A4" s="32" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -6322,25 +6574,25 @@
     </row>
     <row r="5" spans="1:5" ht="240">
       <c r="A5" s="31" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" ht="405">
       <c r="A6" s="32" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -6348,23 +6600,23 @@
     </row>
     <row r="7" spans="1:5" ht="195">
       <c r="A7" s="34" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" s="34" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="31"/>
@@ -6372,10 +6624,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="34" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -6383,25 +6635,25 @@
     </row>
     <row r="10" spans="1:5" ht="180">
       <c r="A10" s="39" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="165">
       <c r="A11" s="39" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -6409,13 +6661,13 @@
     </row>
     <row r="12" spans="1:5" ht="135">
       <c r="A12" s="42" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="e" vm="15">
@@ -6424,42 +6676,64 @@
     </row>
     <row r="13" spans="1:5" ht="315">
       <c r="A13" s="42" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" ht="105">
       <c r="A14" s="42" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5" ht="135">
+    <row r="15" spans="1:5" ht="180">
       <c r="A15" s="39" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>328</v>
+        <v>340</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>341</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" ht="90">
+      <c r="A16" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" ht="225">
+      <c r="A17" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6474,9 +6748,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6499,7 +6771,7 @@
     </row>
     <row r="2" spans="1:3" ht="90">
       <c r="A2" s="13" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>122</v>
@@ -6508,40 +6780,40 @@
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="13" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180">
       <c r="A4" s="36" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120">
       <c r="A5" s="36" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90">
       <c r="A6" s="36" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>124</v>
@@ -6552,35 +6824,35 @@
     </row>
     <row r="7" spans="1:3" ht="180">
       <c r="A7" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>312</v>
+        <v>287</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>294</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="180">
       <c r="A8" s="37" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165">
       <c r="A9" s="20" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6597,8 +6869,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6866,13 +7138,13 @@
     </row>
     <row r="19" spans="1:5" ht="135">
       <c r="A19" s="1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6889,10 +7161,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA6E1A4-9993-4EB6-A3CB-476F6C9A67B0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6900,12 +7172,10 @@
     <col min="1" max="1" width="48.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6915,88 +7185,82 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="105">
+    </row>
+    <row r="6" spans="1:3" ht="105">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="180">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="180">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7012,8 +7276,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7027,89 +7291,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
+      <c r="A1" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>324</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="40.5">
+      <c r="A2" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5">
+      <c r="A5" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75">
-      <c r="A7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>186</v>
+      <c r="C6" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -7125,8 +7404,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7174,13 +7453,13 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -7236,7 +7515,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C8" s="9"/>
     </row>
@@ -7271,51 +7550,51 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="210">
       <c r="A13" s="22" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="165">
       <c r="A14" s="22" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="150">
       <c r="A15" s="22" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="23" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -7331,164 +7610,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="48.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="80" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="210">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="1" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60">
-      <c r="A5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75">
-      <c r="A6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45">
-      <c r="A8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="105">
-      <c r="A9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45">
-      <c r="A10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="75">
-      <c r="A11" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F004CB3A-FE9E-444B-A9F5-3A0FA243B7D9}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7519,25 +7641,182 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="210">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="1" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60">
+      <c r="A5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
+      <c r="A8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105">
+      <c r="A9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45">
+      <c r="A10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75">
+      <c r="A11" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F004CB3A-FE9E-444B-A9F5-3A0FA243B7D9}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" ht="255">
       <c r="A2" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7595,7 +7874,7 @@
         <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135">
@@ -7603,7 +7882,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>90</v>
@@ -7648,7 +7927,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>

--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7EBDB7-552B-4449-B41A-F508AA8B34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34692DD9-0391-4CF4-903E-7FEE85C5E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" tabRatio="741" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="354">
   <si>
     <t>What we're doing</t>
   </si>
@@ -1394,16 +1394,6 @@
 .mean()/.median()/.std()  - Grabs the mean and median of values within a column/columns/standard deviation
 .info() - Provides metadata about the data (e.g. what type of data is it?
 dataset.describe() - Gives you more accurate data about the data itself (e.g. mean, standard deviations, etc). What gets returned in the data will change depending on the type of data that it is (e.g. pandas will analyse numbers differently to string values)</t>
-  </si>
-  <si>
-    <t>["yeah"].head(5) - grab the first five values
-["yeah"].tail(5) - Grab the last five values
-.iloc[0:2, 0:2] - locate the data by a certain number of values/columns. There are other ways of doing this (e.g. head(n) if you want top n values), but .iloc is more specificdata[data.area &gt; 150000, ["density"]]
-["yeah"].isnull() - is the data in each value null or not? /.notnull() - is each value not null?
-data.columnheader["data"] - Used to grab the specific data value
-data[data.area &gt; 150000] - Filter the area column by only grabbing data that is above a certain amount/other filter. After the comma, only include specified columns and no others
-["yeah"].max() - Grabs the largest value in the column/dataset["feature"].max() as an alternative way
-["yeah"].nlargest(10) - Grabs the 10 largest values in a specific column. Alternative way of writing it is data1.nlargest(10, "Age). nsmallest is the same, but for smallest values.</t>
   </si>
   <si>
     <t>Methods of Counter:
@@ -4306,17 +4296,43 @@
 # Flatten using flatten() method
 arr_flattened = arr_2d.flatten() // [1 2 3 4 5 6]</t>
   </si>
+  <si>
+    <t>data.["height"].head(5) - grab the first five values
+data.["height"].tail(5) - Grab the last five values
+data.iloc[0:2, 0:2] - locate the data by a certain number of values/columns. There are other ways of doing this (e.g. head(n) if you want top n values), but .iloc is more specificdata[data.area &gt; 150000, ["density"]]
+data.["height"].isnull() - is the data in each value null or not? /.notnull() - is each value not null?
+data.columnheader["data"] - Used to grab the specific data value
+data[data.area &gt; 150000] - Filter the area column by only grabbing data that is above a certain amount/other filter. After the comma, only include specified columns and no others
+data.["height"].max() - Grabs the largest value in the column/dataset["feature"].max() as an alternative way
+data.["height"].nlargest(10) - Grabs the 10 largest values in a specific column. Alternative way of writing it is data1.nlargest(10, "Age). nsmallest is the same, but for smallest values.</t>
+  </si>
+  <si>
+    <t>Drop missing values</t>
+  </si>
+  <si>
+    <t>df_cleaned = data.dropna(subset=["name", "age])</t>
+  </si>
+  <si>
+    <t>Once you have gone through the data, you can then delete all the rows of data that contains NaN values very easily using the dropna method. You don't need to supply a subset in this example at all, but it does specify that drop data values where NaN is in these columns. If there are NaN values within other columns not specificied with the subset, then it will ignore these.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4588,95 +4604,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4685,52 +4701,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5727,8 +5746,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F6B46A6-1B6D-4755-B8C2-D9296BB15DCE}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
-  <autoFilter ref="A1:E16" xr:uid="{0F6B46A6-1B6D-4755-B8C2-D9296BB15DCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F6B46A6-1B6D-4755-B8C2-D9296BB15DCE}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
+  <autoFilter ref="A1:E17" xr:uid="{0F6B46A6-1B6D-4755-B8C2-D9296BB15DCE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{E7244FEC-43D7-4D4F-BC5F-7F5AB0C09133}" name="What we're doing" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{D1732B91-4450-4FA3-AC7C-A5186E622F9F}" name="Code" dataDxfId="63"/>
@@ -6170,7 +6189,7 @@
         <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="90">
@@ -6360,7 +6379,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6372,10 +6391,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>244</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>245</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>3</v>
@@ -6386,7 +6405,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6396,23 +6415,23 @@
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>248</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="105">
       <c r="A4" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>250</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>251</v>
       </c>
       <c r="D4" s="24" t="e" vm="12">
         <v>#VALUE!</v>
@@ -6420,10 +6439,10 @@
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>253</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="e" vm="13">
@@ -6432,59 +6451,59 @@
     </row>
     <row r="6" spans="1:4" ht="150">
       <c r="A6" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>265</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>266</v>
       </c>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="105">
       <c r="A7" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>256</v>
-      </c>
       <c r="C7" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="90">
       <c r="A8" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>274</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>275</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="105">
       <c r="A9" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>298</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>299</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="75">
       <c r="A10" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>306</v>
-      </c>
       <c r="C10" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" s="24" t="e" vm="14">
         <v>#VALUE!</v>
@@ -6502,8 +6521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B3B599-2C6A-4CA8-B2F0-63091B448B87}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6535,38 +6554,38 @@
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="31" t="s">
         <v>258</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>259</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="195">
       <c r="A3" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>262</v>
-      </c>
       <c r="D3" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="360">
       <c r="A4" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -6574,25 +6593,25 @@
     </row>
     <row r="5" spans="1:5" ht="240">
       <c r="A5" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>269</v>
-      </c>
       <c r="D5" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" ht="405">
       <c r="A6" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>270</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>271</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -6600,23 +6619,23 @@
     </row>
     <row r="7" spans="1:5" ht="195">
       <c r="A7" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="31"/>
@@ -6624,10 +6643,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>277</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>278</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -6635,25 +6654,25 @@
     </row>
     <row r="10" spans="1:5" ht="180">
       <c r="A10" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="165">
       <c r="A11" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>302</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>303</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -6661,13 +6680,13 @@
     </row>
     <row r="12" spans="1:5" ht="135">
       <c r="A12" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>314</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>315</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="e" vm="15">
@@ -6676,49 +6695,49 @@
     </row>
     <row r="13" spans="1:5" ht="315">
       <c r="A13" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>313</v>
-      </c>
       <c r="C13" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" ht="105">
       <c r="A14" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>318</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>319</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" ht="180">
       <c r="A15" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>340</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>341</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" ht="90">
       <c r="A16" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="40" t="s">
         <v>342</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>343</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -6726,10 +6745,10 @@
     </row>
     <row r="17" spans="1:5" ht="225">
       <c r="A17" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>344</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>345</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -6771,7 +6790,7 @@
     </row>
     <row r="2" spans="1:3" ht="90">
       <c r="A2" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>122</v>
@@ -6780,40 +6799,40 @@
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="36" t="s">
         <v>290</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180">
       <c r="A4" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>292</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120">
       <c r="A5" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90">
       <c r="A6" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>124</v>
@@ -6824,24 +6843,24 @@
     </row>
     <row r="7" spans="1:3" ht="180">
       <c r="A7" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="180">
       <c r="A8" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165">
@@ -7163,7 +7182,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7246,7 +7265,7 @@
         <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>181</v>
@@ -7292,16 +7311,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="C1" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>323</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>324</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>28</v>
@@ -7309,86 +7328,86 @@
     </row>
     <row r="2" spans="1:5" ht="40.5">
       <c r="A2" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="43" t="s">
         <v>326</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>148</v>
       </c>
       <c r="C3" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>329</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="43" t="s">
         <v>332</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>335</v>
-      </c>
       <c r="D5" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>149</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>339</v>
-      </c>
       <c r="D7" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -7402,10 +7421,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67F503F-6C1D-4E96-9C5A-58360F3F143C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7568,12 +7587,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="165">
+    <row r="14" spans="1:5" ht="180">
       <c r="A14" s="22" t="s">
         <v>234</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="C14" s="22"/>
     </row>
@@ -7582,19 +7601,30 @@
         <v>235</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>241</v>
+    </row>
+    <row r="17" spans="1:3" ht="60">
+      <c r="A17" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -7611,7 +7641,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7927,7 +7957,7 @@
         <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>99</v>

--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34692DD9-0391-4CF4-903E-7FEE85C5E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029D93E-FB2A-4B5B-A083-0AF0E04A06F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" tabRatio="741" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" tabRatio="685" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="MatPlotLib Cheeky Things" sheetId="11" r:id="rId11"/>
     <sheet name="AI Concepts Explained" sheetId="13" r:id="rId12"/>
     <sheet name="Scikit-learn Basics" sheetId="14" r:id="rId13"/>
+    <sheet name="Keras Basics" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -194,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="377">
   <si>
     <t>What we're doing</t>
   </si>
@@ -431,11 +432,6 @@
     <t>It's difficult to explain everything that it's used for, but it's used for a lot. Data analysis, data science, as well as for AI. Although Pandas is often used with Numpy, it can also be used independently. In addition, although both numpy and pandas are very useful to know, Pandas, I believe, is possibly the more useful in most situations, and I would hazard to say it is used move overall, but it's still good practice to import both libraries. Pandas is probably slightly more complicated because it has more features that you will use on an average basis. However, as long as you kind of know what you want to create, then the only issue is the syntax, and that's a secondary concern anyways, and you can use this cheatsheet anyways. If you know what you want, and you know how to get it, then you're on your way to success</t>
   </si>
   <si>
-    <t>import numpy as np
-import pandas as pd
-# Always makes sense to import both numpy and pandas</t>
-  </si>
-  <si>
     <t>The most simple data structure in Pandas, the series is a one-dimensional array of indexed data. It can be of any time throughout. When you print it out, it shows the data, as well as the position within the data (e.g. 0    1;1    "yeah"; 2     2… etc). Just like a normal array in Python, we use the same syntax to grab the data (e.g. [2], [2:5], etc)</t>
   </si>
   <si>
@@ -443,10 +439,6 @@
   </si>
   <si>
     <t>Create a series, and attach an index to the values</t>
-  </si>
-  <si>
-    <t>data = pd.Series([1, "yeah", 2, 3, 3, 5])
-data.values (used to get small amount of info on the data)</t>
   </si>
   <si>
     <t>data = pd.Series([0, 1, 2, 3, 4],index=["a", "b", "c", "d", "e"])</t>
@@ -1002,9 +994,6 @@
     <t>We can flatten a multi-dimensional array to be 1D using the .flatten() method.</t>
   </si>
   <si>
-    <t>Find the largest value of a multi-dimensional array by its index value (instead of tuple coordinates). Then reverse the process</t>
-  </si>
-  <si>
     <t>Grab the index of the largest value:
 arr_2d = np.array([[1, 2, 3], [4, 5, 6]])
 print(np.argmax(data)) // prints 5
@@ -1099,9 +1088,6 @@
   </si>
   <si>
     <t>We can bring data into our program using read_csv. We can also define an index column using index_col = "date", or whatever you'd like.</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>Copy a pandas dataframe</t>
@@ -1384,18 +1370,6 @@
     <t>Do things to the data</t>
   </si>
   <si>
-    <t>data.values - grabs the values of the data
-data.index - grabs the index of the data
-data.size - How many values are there in total
-data.shape - What is the shape of the item (e.g. (5, 3))
-data.ndim - Number of dimensions in the objectdata.head(n)
-data.columns/.columns[1] - grabs the names of the columns. If you use .columns[1], you'll grab all the data from column with index 1
-data["columnheader"] or data.columheader - Used to grab all the data from a single column
-.mean()/.median()/.std()  - Grabs the mean and median of values within a column/columns/standard deviation
-.info() - Provides metadata about the data (e.g. what type of data is it?
-dataset.describe() - Gives you more accurate data about the data itself (e.g. mean, standard deviations, etc). What gets returned in the data will change depending on the type of data that it is (e.g. pandas will analyse numbers differently to string values)</t>
-  </si>
-  <si>
     <t>Methods of Counter:
 .most_common(n) - Get the key which has the highest number, n being the position. If we wanted the most, we'd use 1, second highest is 2, third is 3, etc. If there's more than one with the highest, I think it just does it alphabetically
 d = [1, 1, 2]; counter1.subtract(d) - Will remove two occurances of one, and one occurance of two. This means also that we're able to enter negative number range.
@@ -1412,14 +1386,6 @@
   </si>
   <si>
     <t>Check if there are missing data sets within the data. We can also use data.isna().sum() for the number of empty data cells</t>
-  </si>
-  <si>
-    <t>.sort_index() - Sort the index in alphabetical order
-states.sort_values(by="area") - Sorts the DataFrame by a specific column
-.dropna() - Drop an entire index value if even a single column is null. You can change it to remove the column by using: axis="column". Select a minimum threshhold of 3 with: thresh=3.fillna("pizza", inplace=True)
-.fillna(value, inplace=True) - Replace the null values with a specific value. Can also provide something more specific for the value, such as df.mean (numeric_only = True), which will make the missing values within numeric values equal to the mean of the column
-.sum() - Grab the sum
-dataset.T - Transposes the dataset (swaps the columns and rows with one another)</t>
   </si>
   <si>
     <t>plt.xlim(-1, 11)
@@ -4315,17 +4281,1284 @@
   <si>
     <t>Once you have gone through the data, you can then delete all the rows of data that contains NaN values very easily using the dropna method. You don't need to supply a subset in this example at all, but it does specify that drop data values where NaN is in these columns. If there are NaN values within other columns not specificied with the subset, then it will ignore these.</t>
   </si>
+  <si>
+    <t>Import the general tools from Keras</t>
+  </si>
+  <si>
+    <t>Create the model</t>
+  </si>
+  <si>
+    <t>Train the model</t>
+  </si>
+  <si>
+    <t>Create a virtual environment</t>
+  </si>
+  <si>
+    <t>This creates a virtual environment, easily allowing you to install packages and manage version control within the program. Very useful if you're struggling to install modles to your program.</t>
+  </si>
+  <si>
+    <t># Create a virtual environment
+python -m venv my_env
+# Activate the virtual environment:
+my_env\Scripts\activate</t>
+  </si>
+  <si>
+    <t>These lines import the necessary classes and functions from Keras to build, train, and visualize a neural network model.</t>
+  </si>
+  <si>
+    <t>Keras is a popular deep learning library for Python.</t>
+  </si>
+  <si>
+    <t>This code creates a Sequential model, which is a linear stack of layers. It adds three Dense layers: the first with 5 neurons and one input, the second with 3 neurons, and the third with one output neuron. The activation function used is sigmoid. The model is then compiled with mean squared error loss and the Adam optimizer. The model.summary() function prints a summary of the model architecture.</t>
+  </si>
+  <si>
+    <t>Dense layers are fully connected layers, where each neuron is connected to all neurons in the previous layer. The input_dim parameter specifies the number of input features.</t>
+  </si>
+  <si>
+    <t>This line trains the model using the fit() function, passing in the training data (xN and y). The verbose=False parameter suppresses the progress output during training. The model is trained for 3000 epochs.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from keras.models import Sequential</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - This line imports the Sequential class from the Keras models module, allowing us to create a linear stack of neural network layers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from keras.layers import Dense </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- This line imports the Dense class from the Keras layers module, enabling us to add fully connected layers to our neural network model
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from keras.utils import plot_model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- This line imports the plot_model function from the Keras utils module, which allows us to visualize the architecture of our neural network model as a plot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Create the model
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model = Sequential()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># First layer, one input (x), 5 neurons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model.add(Dense(5, input_dim=1, activation='sigmoid'))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Second layer, 3 neurons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model.add(Dense(3, activation='sigmoid'))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># One output, y (hopefully sine (x)!). The output layer has to have one neuron
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model.add(Dense (1, activation='sigmoid'))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Build our ANN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model.compile (loss='mean_squared_error', optimizer='adam')
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Produce a summary of the data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model.summary ()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Train our model
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h = model.fit (normalised_x, y, verbose = False, epochs=3000)</t>
+    </r>
+  </si>
+  <si>
+    <t>Epochs refer to the number of times the entire training dataset is passed through the neural network during training. More epochs generally lead to better performance, but also increase the risk of overfitting. It also increases the amount of time that it takes to train the model</t>
+  </si>
+  <si>
+    <t>View the loss of the model</t>
+  </si>
+  <si>
+    <t>When you run print(h.history["loss"][-1]), it will print the final loss value achieved by the model after completing all 3000 training epochs. This can be useful for monitoring the training process and assessing the model's performance on the training data. We are printing basically how accurate the model is compared to the actual data.
+Note that h.history also contains other metrics like accuracy or validation loss if you have configured the model to record them during training.</t>
+  </si>
+  <si>
+    <t>plt.plot(normalised_x, y, c="b")
+plt.plot(x, y, c="r")
+plt.plot(x, model.predict(normalised_x), c="g")
+plt.show()</t>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>h.history["loss"][-1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Plot the data and model predictions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This code plots three lines on the same graph using the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plt.plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function from the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>matplotlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> library:
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plt.plot(normalised_x, y, c="b")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plots the normalized input data (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>normalised_x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) against the target values (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) using a blue color (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>c="b"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plt.plot(x, y, c="r")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plots the original input data (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) against the target values (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) using a red color (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>c="r"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plt.plot(x, model.predict(normalised_x), c="g")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plots the original input data (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) against the model's predictions made on the normalized input data (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>model.predict(normalised_x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) using a green color (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>c="g"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plt.show()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> displays the plotted lines on the graph.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the convention for importing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>matplotlib.pyplot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+- The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>plt.plot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sets the color of the line.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>model.predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>normalised_x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) passes the normalized input data through the trained neural network model to obtain predictions.
+- Plotting the data and predictions together allows for visual comparison and evaluation of the model's performance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coordinates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>largest position,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unravel</t>
+    </r>
+  </si>
+  <si>
+    <t>Find coordinates of the smallest position</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">randomGrid = np.random.randint(1, 100, 100).reshape(10, 10)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>np.unravel_index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(np.argmax(randomGrid), randomGrid.shape)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import numpy as np
+import pandas as pd
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Always makes sense to import both numpy and pandas</t>
+    </r>
+  </si>
+  <si>
+    <t>data = pd.Series([1, "text", 2, 3, 3, 5])
+data.values (used to get small amount of info on the data)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - grabs the values of the data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - grabs the index of the data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - How many values are there in total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.shape</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - What is the shape of the item (e.g. (5, 3))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.ndim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Number of dimensions in the objectdata.head(n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.columns/.columns[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - grabs the names of the columns. If you use .columns[1], you'll grab all the data from column with index 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data["columnheader"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.columheader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Used to grab all the data from a single column
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.mean()/data.median()/data.std()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - Grabs the mean and median of values within a column/columns/standard deviation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.info()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Provides metadata about the data (e.g. what type of data is it?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dataset.describe()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Gives you more accurate data about the data itself (e.g. mean, standard deviations, etc). What gets returned in the data will change depending on the type of data that it is (e.g. pandas will analyse numbers differently to string values)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">data.sort_index() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Sort the index in alphabetical order
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.sort_values(by="area")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Sorts the DataFrame by a specific column
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.dropna()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Drop an entire index value if even a single column is null. You can change it to remove the column by using: axis="column". Select a minimum threshhold of 3 with: thresh=3.fillna("pizza", inplace=True)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">data.fillna(value, inplace=True) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Replace the null values with a specific value. Can also provide something more specific for the value, such as df.mean (numeric_only = True), which will make the missing values within numeric values equal to the mean of the column
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">data.sum() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Grab the sum
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dataset.T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Transposes the dataset (swaps the columns and rows with one another)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4604,38 +5837,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4644,55 +5862,70 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4701,62 +5934,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="102">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5626,176 +6919,190 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}" name="Table5" displayName="Table5" ref="A1:D13" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95">
-  <autoFilter ref="A1:D13" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}" name="Table5" displayName="Table5" ref="A1:D14" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98">
+  <autoFilter ref="A1:D14" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F494DF5D-709B-4939-BEF8-065BE31D54A5}" name="What we're doing" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{2CEA16F5-1272-49B8-8D02-F136DC5C9E39}" name="Code" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{9AC276B8-C735-44DB-8758-22771354F751}" name="Explained" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{4CA17A71-CD05-4F1E-802C-F24401AB0A68}" name="Notes" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{F494DF5D-709B-4939-BEF8-065BE31D54A5}" name="What we're doing" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{2CEA16F5-1272-49B8-8D02-F136DC5C9E39}" name="Code" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{9AC276B8-C735-44DB-8758-22771354F751}" name="Explained" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{4CA17A71-CD05-4F1E-802C-F24401AB0A68}" name="Notes" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{513D6F57-58D6-4A43-B1E5-677F93419368}" name="Table12" displayName="Table12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{513D6F57-58D6-4A43-B1E5-677F93419368}" name="Table12" displayName="Table12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
   <autoFilter ref="A1:E2" xr:uid="{513D6F57-58D6-4A43-B1E5-677F93419368}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C03A2034-27F4-4D66-8003-430C7AB80DA7}" name="What we're doing" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{7EABE20C-6458-42A5-A1BE-1F9489FBB55C}" name="Code" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{F4E80401-B194-4F74-97A8-5D752874276A}" name="Explained" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{AE96CC48-FF7F-4233-84AB-99FD2421934C}" name="Notes" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{B51EEC40-79D8-4EA1-9D91-56C811C05820}" name="Images" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{C03A2034-27F4-4D66-8003-430C7AB80DA7}" name="What we're doing" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{7EABE20C-6458-42A5-A1BE-1F9489FBB55C}" name="Code" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{F4E80401-B194-4F74-97A8-5D752874276A}" name="Explained" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{AE96CC48-FF7F-4233-84AB-99FD2421934C}" name="Notes" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{B51EEC40-79D8-4EA1-9D91-56C811C05820}" name="Images" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{CB8BC3D4-45C0-4683-9BBC-568186CF0E38}" name="Table11" displayName="Table11" ref="A1:E4" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{CB8BC3D4-45C0-4683-9BBC-568186CF0E38}" name="Table11" displayName="Table11" ref="A1:E4" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
   <autoFilter ref="A1:E4" xr:uid="{CB8BC3D4-45C0-4683-9BBC-568186CF0E38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C811F8CB-CC88-4D2F-9584-3E46703E97A8}" name="What we're doing" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{751025EF-CF8E-4AC2-BDB9-737FA843DD5E}" name="Code" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{6BA44EA6-A21E-4FEF-AA39-87A54492BA5C}" name="Explained" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{E4EE28AC-A28F-4D41-912D-28412F316D3F}" name="Notes" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{AF275047-20D0-45BA-8946-F8119DB79D2F}" name="Images" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{C811F8CB-CC88-4D2F-9584-3E46703E97A8}" name="What we're doing" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{751025EF-CF8E-4AC2-BDB9-737FA843DD5E}" name="Code" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{6BA44EA6-A21E-4FEF-AA39-87A54492BA5C}" name="Explained" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{E4EE28AC-A28F-4D41-912D-28412F316D3F}" name="Notes" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{AF275047-20D0-45BA-8946-F8119DB79D2F}" name="Images" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}" name="Table210" displayName="Table210" ref="A1:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}" name="Table210" displayName="Table210" ref="A1:D10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D10" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{23F4172E-BA4C-4B53-8A90-E0059ED1DE4A}" name="Concepts" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{04ADC2BE-761C-4A23-BD42-73FBD7BB9ACC}" name="General Understanding" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8E8E58F0-EC8C-419C-8649-8569F30F3315}" name="Notes" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{79647B00-8160-485F-AB41-3CAD50FBD3FE}" name="Images" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{23F4172E-BA4C-4B53-8A90-E0059ED1DE4A}" name="Concepts" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{04ADC2BE-761C-4A23-BD42-73FBD7BB9ACC}" name="General Understanding" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{8E8E58F0-EC8C-419C-8649-8569F30F3315}" name="Notes" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{79647B00-8160-485F-AB41-3CAD50FBD3FE}" name="Images" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}" name="Table114" displayName="Table114" ref="A1:E17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}" name="Table114" displayName="Table114" ref="A1:E17" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:E17" xr:uid="{FAF65583-B8F6-40EA-862C-E4025F5D5778}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9DCDC563-2DFF-40C4-9194-5C07503E012F}" name="What we're doing" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D5AE45F1-A084-45BD-B4F4-32098DA0FE85}" name="Code" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B8842199-257D-476D-91B8-BF5565E0CEB6}" name="Explained" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{A56794F9-07D7-460B-9613-488C3E6D3E08}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{58712703-E0DE-497F-99CA-53F643C2130A}" name="Images" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9DCDC563-2DFF-40C4-9194-5C07503E012F}" name="What we're doing" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D5AE45F1-A084-45BD-B4F4-32098DA0FE85}" name="Code" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B8842199-257D-476D-91B8-BF5565E0CEB6}" name="Explained" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A56794F9-07D7-460B-9613-488C3E6D3E08}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{58712703-E0DE-497F-99CA-53F643C2130A}" name="Images" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{83516EAD-C1D4-42A1-A16F-955D76E16498}" name="Table14" displayName="Table14" ref="A1:E6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:E6" xr:uid="{83516EAD-C1D4-42A1-A16F-955D76E16498}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F85C742D-0225-43ED-BCE1-F9389A07DE27}" name="What we're doing"/>
+    <tableColumn id="2" xr3:uid="{CA8885A5-5387-400A-B27C-F53BBEAC9AD1}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{CD1DEAF2-1CAA-46D5-923E-DE51555D8994}" name="Explained"/>
+    <tableColumn id="4" xr3:uid="{3289C768-1E98-4FFE-886E-88442D81B1BE}" name="Notes"/>
+    <tableColumn id="5" xr3:uid="{6E899B54-E1D8-42B9-9F27-1762488DFD51}" name="Images"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}" name="Table6" displayName="Table6" ref="A1:C9" totalsRowShown="0" headerRowDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}" name="Table6" displayName="Table6" ref="A1:C9" totalsRowShown="0" headerRowDxfId="93">
   <autoFilter ref="A1:C9" xr:uid="{7FD86BF1-CE00-4BA1-8920-1708F0222CC4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{19453ECD-E5C7-401A-B7FC-87A649435C5C}" name="Description" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{1919C35A-308E-40D1-AAC4-2CB4DF436B7C}" name="Code" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{2A8D9EA6-BEB2-42CE-A5DC-6159F47611E6}" name="Explained" dataDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{19453ECD-E5C7-401A-B7FC-87A649435C5C}" name="Description" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{1919C35A-308E-40D1-AAC4-2CB4DF436B7C}" name="Code" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{2A8D9EA6-BEB2-42CE-A5DC-6159F47611E6}" name="Explained" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0" dataDxfId="89">
   <autoFilter ref="A1:E19" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{87C5A738-EC60-406D-9D4A-8EC749FFE9F1}" name="What we're doing" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{CF6B9D06-2B28-4E68-809D-AF9F80440C99}" name="Code" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{ED32AAD6-9279-465D-991A-3924E44CDD57}" name="Explained" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{9AB07762-9752-406E-A0CE-803209CF114D}" name="Notes" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{D73A5CB7-CB32-4811-AD17-11CE89C449B9}" name="Images" dataDxfId="81"/>
+    <tableColumn id="1" xr3:uid="{87C5A738-EC60-406D-9D4A-8EC749FFE9F1}" name="What we're doing" dataDxfId="88"/>
+    <tableColumn id="2" xr3:uid="{CF6B9D06-2B28-4E68-809D-AF9F80440C99}" name="Code" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{ED32AAD6-9279-465D-991A-3924E44CDD57}" name="Explained" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{9AB07762-9752-406E-A0CE-803209CF114D}" name="Notes" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{D73A5CB7-CB32-4811-AD17-11CE89C449B9}" name="Images" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9229FB3D-E830-4CF1-A3A1-1E2B7FE62321}" name="Table7" displayName="Table7" ref="A1:C8" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77">
-  <autoFilter ref="A1:C8" xr:uid="{9229FB3D-E830-4CF1-A3A1-1E2B7FE62321}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9229FB3D-E830-4CF1-A3A1-1E2B7FE62321}" name="Table7" displayName="Table7" ref="A1:C9" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80">
+  <autoFilter ref="A1:C9" xr:uid="{9229FB3D-E830-4CF1-A3A1-1E2B7FE62321}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{433BA0DF-A1DB-4C86-8F48-BB452AEA9DEF}" name="What we're doing" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{01BD8D97-4A43-4078-B15D-8F9B50E4B231}" name="Code" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{B8DADEC4-F3FD-4B3B-A2FD-72471339A717}" name="Explained" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{433BA0DF-A1DB-4C86-8F48-BB452AEA9DEF}" name="What we're doing" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{01BD8D97-4A43-4078-B15D-8F9B50E4B231}" name="Code" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{B8DADEC4-F3FD-4B3B-A2FD-72471339A717}" name="Explained" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{984FD9CF-0316-4C2B-9318-7C910E4A996F}" name="Table8" displayName="Table8" ref="A1:E7" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{984FD9CF-0316-4C2B-9318-7C910E4A996F}" name="Table8" displayName="Table8" ref="A1:E7" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73">
   <autoFilter ref="A1:E7" xr:uid="{984FD9CF-0316-4C2B-9318-7C910E4A996F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{54F9D04F-B818-4DD7-88D3-6AFFE42B8DF6}" name="Task Description"/>
     <tableColumn id="2" xr3:uid="{57C92769-229A-4611-B86C-06BB69896293}" name="Code Example"/>
     <tableColumn id="3" xr3:uid="{BB83E5E3-2322-4B23-8FF4-3DE748564970}" name="Explanation"/>
     <tableColumn id="4" xr3:uid="{CA13C988-4490-4344-8A3D-31B4A3CB0036}" name="Additional Notes"/>
-    <tableColumn id="5" xr3:uid="{C8C5DEF9-6E72-46A3-800B-3046F99C7BD5}" name="Images" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{C8C5DEF9-6E72-46A3-800B-3046F99C7BD5}" name="Images" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F6B46A6-1B6D-4755-B8C2-D9296BB15DCE}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F6B46A6-1B6D-4755-B8C2-D9296BB15DCE}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68">
   <autoFilter ref="A1:E17" xr:uid="{0F6B46A6-1B6D-4755-B8C2-D9296BB15DCE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E7244FEC-43D7-4D4F-BC5F-7F5AB0C09133}" name="What we're doing" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{D1732B91-4450-4FA3-AC7C-A5186E622F9F}" name="Code" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{D634751F-6A9D-483E-9203-693E0808B47C}" name="Explained" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{5E122D03-0FCB-456B-A2E6-EFC5236F4911}" name="Notes" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{21C198E1-207E-4EE6-AD36-DA88D11860F4}" name="Images" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{E7244FEC-43D7-4D4F-BC5F-7F5AB0C09133}" name="What we're doing" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{D1732B91-4450-4FA3-AC7C-A5186E622F9F}" name="Code" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{D634751F-6A9D-483E-9203-693E0808B47C}" name="Explained" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{5E122D03-0FCB-456B-A2E6-EFC5236F4911}" name="Notes" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{21C198E1-207E-4EE6-AD36-DA88D11860F4}" name="Images" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D63D81E-768B-4B4F-87FB-50FD435769C2}" name="Table3" displayName="Table3" ref="A1:E11" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D63D81E-768B-4B4F-87FB-50FD435769C2}" name="Table3" displayName="Table3" ref="A1:E11" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
   <autoFilter ref="A1:E11" xr:uid="{1D63D81E-768B-4B4F-87FB-50FD435769C2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{882C8D30-B6E5-4155-B8C8-1392D8442392}" name="What we're doing" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{042D1987-8045-418B-9FF7-9254A8047C93}" name="Code" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{A163102B-3378-4710-960E-8B262A4694A5}" name="Explained" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{74B15385-3C8F-4EED-A421-C7B51FBB8DCC}" name="Notes" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{E3B82770-4A88-4CC8-AC0E-42C692DBB072}" name="Images" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{882C8D30-B6E5-4155-B8C8-1392D8442392}" name="What we're doing" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{042D1987-8045-418B-9FF7-9254A8047C93}" name="Code" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{A163102B-3378-4710-960E-8B262A4694A5}" name="Explained" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{74B15385-3C8F-4EED-A421-C7B51FBB8DCC}" name="Notes" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{E3B82770-4A88-4CC8-AC0E-42C692DBB072}" name="Images" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8C1AE9A3-E2D5-4125-B366-DEA1B1E59A38}" name="Table10" displayName="Table10" ref="A1:E4" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
-  <autoFilter ref="A1:E4" xr:uid="{8C1AE9A3-E2D5-4125-B366-DEA1B1E59A38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{8C1AE9A3-E2D5-4125-B366-DEA1B1E59A38}" name="Table10" displayName="Table10" ref="A1:E2" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
+  <autoFilter ref="A1:E2" xr:uid="{8C1AE9A3-E2D5-4125-B366-DEA1B1E59A38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F25A925C-4FD5-4688-8D97-07715CB751FA}" name="What we're doing" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{795A41D9-1A1F-4214-B80B-B61C942E1357}" name="Code" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{52F89B8D-AE23-4568-91D3-9DD02FD9ACB4}" name="Explained" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{DA0E4B44-123D-4C7B-9F59-CEE22FE75EAA}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{961B6BEB-5170-45D4-AF6D-EE83D7442881}" name="Images" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{F25A925C-4FD5-4688-8D97-07715CB751FA}" name="What we're doing" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{795A41D9-1A1F-4214-B80B-B61C942E1357}" name="Code" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{52F89B8D-AE23-4568-91D3-9DD02FD9ACB4}" name="Explained" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{DA0E4B44-123D-4C7B-9F59-CEE22FE75EAA}" name="Notes" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{961B6BEB-5170-45D4-AF6D-EE83D7442881}" name="Images" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D0170772-8FCA-4C77-866A-01A5BABC91B7}" name="Table4" displayName="Table4" ref="A1:E8" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D0170772-8FCA-4C77-866A-01A5BABC91B7}" name="Table4" displayName="Table4" ref="A1:E8" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
   <autoFilter ref="A1:E8" xr:uid="{D0170772-8FCA-4C77-866A-01A5BABC91B7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CE25194B-D127-4F63-96B2-382426D39B72}" name="What we're doing" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{E7D52F59-AE8D-4A12-A734-F55C2559B07F}" name="Code" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{AE69DA17-75B7-4B2C-A690-78E18EC11E0F}" name="Explained" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{5C9AB718-F3CA-4F98-AC84-20607C566D22}" name="Notes" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{EF7C3F96-95BC-496B-996A-75E1AE902838}" name="Images" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{CE25194B-D127-4F63-96B2-382426D39B72}" name="What we're doing" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{E7D52F59-AE8D-4A12-A734-F55C2559B07F}" name="Code" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{AE69DA17-75B7-4B2C-A690-78E18EC11E0F}" name="Explained" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{5C9AB718-F3CA-4F98-AC84-20607C566D22}" name="Notes" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{EF7C3F96-95BC-496B-996A-75E1AE902838}" name="Images" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6060,10 +7367,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F423F3CB-4ABB-497C-821E-58368615CB34}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6091,149 +7398,160 @@
     </row>
     <row r="2" spans="1:4" ht="150">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
       <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="120">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="225">
       <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="300">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165">
       <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="270">
       <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="180">
       <c r="A9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="90">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
       <c r="A11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="180">
       <c r="A12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="210">
       <c r="A13" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75">
+      <c r="A14" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6250,8 +7568,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6283,13 +7601,13 @@
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6338,32 +7656,32 @@
     </row>
     <row r="2" spans="1:5" ht="105">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6391,10 +7709,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>3</v>
@@ -6405,7 +7723,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6415,23 +7733,23 @@
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="105">
       <c r="A4" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D4" s="24" t="e" vm="12">
         <v>#VALUE!</v>
@@ -6439,10 +7757,10 @@
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="24" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="e" vm="13">
@@ -6451,59 +7769,59 @@
     </row>
     <row r="6" spans="1:4" ht="150">
       <c r="A6" s="24" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="105">
       <c r="A7" s="24" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="90">
       <c r="A8" s="35" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="105">
       <c r="A9" s="24" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="75">
       <c r="A10" s="38" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D10" s="24" t="e" vm="14">
         <v>#VALUE!</v>
@@ -6521,8 +7839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B3B599-2C6A-4CA8-B2F0-63091B448B87}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6554,38 +7872,38 @@
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="31" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="195">
       <c r="A3" s="31" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="360">
       <c r="A4" s="32" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -6593,25 +7911,25 @@
     </row>
     <row r="5" spans="1:5" ht="240">
       <c r="A5" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>266</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>272</v>
       </c>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" ht="405">
       <c r="A6" s="32" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -6619,23 +7937,23 @@
     </row>
     <row r="7" spans="1:5" ht="195">
       <c r="A7" s="34" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" s="34" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="31"/>
@@ -6643,10 +7961,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="34" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -6654,25 +7972,25 @@
     </row>
     <row r="10" spans="1:5" ht="180">
       <c r="A10" s="39" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>303</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>309</v>
       </c>
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="165">
       <c r="A11" s="39" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -6680,13 +7998,13 @@
     </row>
     <row r="12" spans="1:5" ht="135">
       <c r="A12" s="42" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="e" vm="15">
@@ -6695,49 +8013,49 @@
     </row>
     <row r="13" spans="1:5" ht="315">
       <c r="A13" s="42" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" ht="105">
       <c r="A14" s="42" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" ht="180">
       <c r="A15" s="39" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" ht="90">
       <c r="A16" s="46" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -6745,10 +8063,10 @@
     </row>
     <row r="17" spans="1:5" ht="225">
       <c r="A17" s="46" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -6758,6 +8076,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C63454-64FF-4807-AE72-E52F6B402F7B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
+    <col min="3" max="3" width="78.28515625" customWidth="1"/>
+    <col min="4" max="4" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="135">
+      <c r="A2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="180">
+      <c r="A3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45">
+      <c r="A4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105">
+      <c r="A5" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150">
+      <c r="A6" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6779,7 +8207,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6790,88 +8218,88 @@
     </row>
     <row r="2" spans="1:3" ht="90">
       <c r="A2" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="75">
       <c r="A3" s="13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180">
       <c r="A4" s="36" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120">
       <c r="A5" s="36" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90">
       <c r="A6" s="36" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="180">
       <c r="A7" s="37" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="180">
       <c r="A8" s="37" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="165">
       <c r="A9" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6959,13 +8387,13 @@
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
@@ -6985,16 +8413,16 @@
     </row>
     <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -7157,13 +8585,13 @@
     </row>
     <row r="19" spans="1:5" ht="135">
       <c r="A19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7180,10 +8608,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA6E1A4-9993-4EB6-A3CB-476F6C9A67B0}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7207,79 +8635,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="105">
       <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
       <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="180">
+      <c r="A8" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="180">
-      <c r="A8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>184</v>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -7296,7 +8732,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7311,16 +8747,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="45" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>28</v>
@@ -7328,86 +8764,86 @@
     </row>
     <row r="2" spans="1:5" ht="40.5">
       <c r="A2" s="43" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="43" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="43" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="43" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="43" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="43" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -7423,8 +8859,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7460,8 +8896,8 @@
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
+      <c r="B2" s="54" t="s">
+        <v>373</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>54</v>
@@ -7472,159 +8908,159 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="60">
       <c r="A4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>374</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
       <c r="A5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="90">
       <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120">
       <c r="A7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="210">
       <c r="A13" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>210</v>
+        <v>229</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="180">
       <c r="A14" s="22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="150">
       <c r="A15" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>376</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>234</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="75">
       <c r="A17" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>346</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7640,8 +9076,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7673,13 +9109,13 @@
     </row>
     <row r="2" spans="1:5" ht="210">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="e" vm="5">
         <v>#VALUE!</v>
@@ -7687,101 +9123,101 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60">
       <c r="A5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75">
       <c r="A6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
       <c r="A9" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
       <c r="A10" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75">
       <c r="A11" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7795,10 +9231,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F004CB3A-FE9E-444B-A9F5-3A0FA243B7D9}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7830,23 +9266,13 @@
     </row>
     <row r="2" spans="1:5" ht="255">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -7862,7 +9288,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7895,30 +9321,30 @@
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="e" vm="6">
         <v>#VALUE!</v>
@@ -7926,13 +9352,13 @@
     </row>
     <row r="4" spans="1:5" ht="135">
       <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E4" s="1" t="e" vm="7">
         <v>#VALUE!</v>
@@ -7940,13 +9366,13 @@
     </row>
     <row r="5" spans="1:5" ht="135">
       <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E5" s="1" t="e" vm="8">
         <v>#VALUE!</v>
@@ -7954,24 +9380,24 @@
     </row>
     <row r="6" spans="1:5" ht="105">
       <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="111" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E7" s="1" t="e" vm="9">
         <v>#VALUE!</v>
@@ -7979,13 +9405,13 @@
     </row>
     <row r="8" spans="1:5" ht="140.25" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="1" t="e" vm="10">

--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0029D93E-FB2A-4B5B-A083-0AF0E04A06F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D16EAF-A0F6-4DBC-A633-0334A38254A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" tabRatio="685" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="685" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="379">
   <si>
     <t>What we're doing</t>
   </si>
@@ -4544,12 +4544,6 @@
 Note that h.history also contains other metrics like accuracy or validation loss if you have configured the model to record them during training.</t>
   </si>
   <si>
-    <t>plt.plot(normalised_x, y, c="b")
-plt.plot(x, y, c="r")
-plt.plot(x, model.predict(normalised_x), c="g")
-plt.show()</t>
-  </si>
-  <si>
     <r>
       <t>print(</t>
     </r>
@@ -5518,6 +5512,95 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Transposes the dataset (swaps the columns and rows with one another)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">plt.plot(normalised_x, y, c="b")
+plt.plot(x, y, c="r")
+plt.plot(x, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>model.predict(normalised_x),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> c="g")
+plt.show()</t>
+    </r>
+  </si>
+  <si>
+    <t>K-Folding</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">K-folding is a way of creating and testing our models where we split our data into two sets: one set for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and one set for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validation/testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. It's a technique used specifically for smaller data sets, so not for large models like ChatGPT/others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -5525,12 +5608,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5749,6 +5839,12 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5837,95 +5933,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5934,52 +6030,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5988,23 +6087,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6960,8 +7059,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}" name="Table210" displayName="Table210" ref="A1:D10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:D10" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}" name="Table210" displayName="Table210" ref="A1:D11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D11" xr:uid="{46C16BA2-61C0-4599-920E-0C9F452559FA}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{23F4172E-BA4C-4B53-8A90-E0059ED1DE4A}" name="Concepts" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{04ADC2BE-761C-4A23-BD42-73FBD7BB9ACC}" name="General Understanding" dataDxfId="14"/>
@@ -7694,10 +7793,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87179907-4FD1-4D78-B59B-9D41D9D2BE6B}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7826,6 +7925,16 @@
       <c r="D10" s="24" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" ht="45">
+      <c r="A11" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8084,8 +8193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C63454-64FF-4807-AE72-E52F6B402F7B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8161,7 +8270,7 @@
         <v>363</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>364</v>
@@ -8169,16 +8278,16 @@
     </row>
     <row r="6" spans="1:5" ht="150">
       <c r="A6" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="D6" s="50" t="s">
         <v>368</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -8701,7 +8810,7 @@
     </row>
     <row r="8" spans="1:3" ht="180">
       <c r="A8" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>180</v>
@@ -8712,10 +8821,10 @@
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="53" t="s">
         <v>371</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -8897,7 +9006,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>54</v>
@@ -8923,7 +9032,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>56</v>
@@ -9017,7 +9126,7 @@
         <v>229</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>206</v>
@@ -9037,7 +9146,7 @@
         <v>231</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" s="22"/>
     </row>
@@ -9052,7 +9161,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75">
+    <row r="17" spans="1:3" ht="60">
       <c r="A17" s="48" t="s">
         <v>345</v>
       </c>
@@ -9076,7 +9185,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D16EAF-A0F6-4DBC-A633-0334A38254A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C6450E-7D6F-473C-87CF-55DAFB369ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="685" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" tabRatio="685" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="389">
   <si>
     <t>What we're doing</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>import numpy as np</t>
-  </si>
-  <si>
-    <t>np.array([1, 3, 5, 5, 2] dtype="float32")</t>
   </si>
   <si>
     <t>Create a basic numpy array with np.array. Numpy arrays work very similarly to normal Python arrays, but have more features. Same things can be used to grab items in the array (e.g. array[4] to grab fifth value, etc). If we want to do something like hold an array within an array, we it's a bit different to normal Python, so we need to be careful</t>
@@ -1082,9 +1079,6 @@
   </si>
   <si>
     <t>Read csv data</t>
-  </si>
-  <si>
-    <t>data1 = pd.read_csv("data.csv", index_col="date")</t>
   </si>
   <si>
     <t>We can bring data into our program using read_csv. We can also define an index column using index_col = "date", or whatever you'd like.</t>
@@ -3065,60 +3059,7 @@
     <t>Use the reduce() function to implement factorial, N!.</t>
   </si>
   <si>
-    <t>Write a function, called Convolve, that accepts three arguments. The first argument is a function. The second and third arguments will be used as arguments for the first argument, the function, by Convolve. Convolve will return the results packaged in a list. For example:</t>
-  </si>
-  <si>
     <t>Simple lambda</t>
-  </si>
-  <si>
-    <t>z = lambda x: x ** 2
-print(z(8))
-# Will print 64</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The order of lambda used in this simple way is:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">lambda aurguments: expression
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In the example to the left, we are passing through 8 as our argument, and we are ouputting 64. The expression, once it's been calcluated, looks like: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lambda 8 : 8**2</t>
-    </r>
-  </si>
-  <si>
-    <t>list1 = [3, 4, 7, 8, 9, 12, 13]
-output = list(filter(lambda x : x % 3 == 0, list1))
-print(output)
-# Will print out [2, 4, 6, 8]</t>
   </si>
   <si>
     <r>
@@ -3873,46 +3814,10 @@
     <t>Counts the number of values in the array that are less than 6. In this case, it returns 5.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To count values between certain bounds: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>np.count_nonzero((array &gt; 2) &amp; (array &lt; 8))</t>
-    </r>
-  </si>
-  <si>
     <t>Sum values that meet a condition in the array</t>
   </si>
   <si>
     <t>Sums the values in each row of the array that are less than 6.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>axis=0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to sum values column-wise.</t>
-    </r>
   </si>
   <si>
     <t>Filter array elements less than a certain value</t>
@@ -5603,17 +5508,306 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Add more data to a numpy stack</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When we want to add more data to our numpy stack, because we are dealing with matrices, we can't add data in the normal way we'd add data. We'd need to either add the items vertically, or horizontally.
+Adding vertically using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vstack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is relatively easy. We start with our initial stack, which is the array which already exists. Then we add the data, making sure that it's the same column length as before.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hstack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>works in the same way, but we need to add a restack, checking the current number of rows, then reshaping it to fit it, with 1 column length.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>axis=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to sum values column-wise.
+If you want to get the sum with two variables, you can do this:
+np.sum(grid[(grid &gt; 5) &amp; (grid &lt; 15)])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The order of lambda used in this simple way is:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lambda arguments: expression
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In the example to the left, we are passing through 8 as our argument, and we are ouputting 64. The expression, once it's been calcluated, looks like: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lambda 8 : 8**2</t>
+    </r>
+  </si>
+  <si>
+    <t>This code snippet demonstrates the process of training a decision tree classifier on the Iris dataset using scikit-learn. Here's a breakdown of the code:
+1. Import Libraries: The code begins by importing necessary modules from scikit-learn:
+- train_test_split from sklearn.model_selection: This function is used to split the dataset into training and testing sets.
+2. Data Preparation:
+- X: It represents the features (independent variables) of the dataset. Here, it includes the columns from 'sepal length' to 'petal width' of the Iris dataset.
+- y: It represents the target variable (dependent variable) of the dataset, which is the class of iris plants.
+3. Train-Test Split:
+- train_test_split(): This function is used to split the dataset into training and testing sets. It takes X and y as input along with random_state to ensure reproducibility.
+- X_train, X_test: These variables hold the feature data for training and testing sets, respectively.
+- y_train, y_test: These variables hold the target data for training and testing sets, respectively.
+4. Model Building:
+- DecisionTreeClassifier(): This initializes a decision tree classifier.
+- tree.fit(): This method is used to train the decision tree classifier on the training data (X_train and y_train).
+5. Model Evaluation:
+- tree.score(): This method calculates the accuracy of the trained decision tree classifier on the testing data (X_test and y_test). It returns the mean accuracy.
+6. Confusion Matrix:
+- predictions = tree.predict(X_test): This line predicts the classes of the testing data using the trained decision tree classifier.
+- confusion_matrix(): This function computes the confusion matrix to evaluate the accuracy of classification.
+- ConfusionMatrixDisplay(): This initializes an object to display the confusion matrix.
+- disp.plot(): This method displays the confusion matrix using a plot.</t>
+  </si>
+  <si>
+    <t>list1 = [3, 4, 7, 8, 9, 12, 13]
+output = list(filter(lambda x : x % 3 == 0, list1))
+print(output)
+# Will print out [2, 4, 6, 8]
+Could be rewritten like this:
+def isDivisibleByThree(x):
+    return x % 3 == 0
+output = list(filter(isDivisibleBy3, list1))</t>
+  </si>
+  <si>
+    <t>z = lambda x: x ** 2
+print(z(8))
+# Will print 64
+This lambda function could be rewritten like this:
+def z(x):
+    return x ** 2</t>
+  </si>
+  <si>
+    <t>numbers = [1, 2, 3, 4, 5]
+squared_numbers = list(map(lambda x: x ** 2, numbers))
+# output: [1, 4, 9, 16, 25]</t>
+  </si>
+  <si>
+    <t>List, map() and lambda</t>
+  </si>
+  <si>
+    <t>Write a function, called Convolve, that accepts three arguments. The first argument is a function. The second and third arguments will be used as arguments for the first argument, the function, by Convolve. Convolve will return the results packaged in a list.</t>
+  </si>
+  <si>
+    <t>np.array([1, 3, 5, 5, 2], dtype="float32")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">array1 = np.linspace(1, 10, 10).reshape(2, 5)
+# Add annother row to array1
+array1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>np.vstack([array1, np.linspace(11, 15, 5)])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+# Add annother column to array1
+array1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>np.hstack([array1, np.linspace(16, 17, 3).reshape(3, 1)])</t>
+    </r>
+  </si>
+  <si>
+    <t>List and zip</t>
+  </si>
+  <si>
+    <t>locations = [[1, 2, 3, 4, 5, 6], [2, 3, 4, 5 ,6, 7]]
+theList = list(zip(locations[0], locations[1]))
+# theList will look like: [[1, 2], [2, 3], [3,4],… etc]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zip()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> basically goes through the entirety of the list that you put in, and then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> returns it to a list. In this example, we're going through all the values in locations, and placing them into a new list, but with a different format. </t>
+    </r>
+  </si>
+  <si>
+    <t>Another way of doing it is this:
+theList = list(zip(*locations))
+For much nicer syntax</t>
+  </si>
+  <si>
+    <t>data1 = pd.read_csv("data.csv", index_col="date", header=None)</t>
+  </si>
+  <si>
+    <t>Always make the header=None, as this means that when you add the columns later on, you're not destroying any data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5933,59 +6127,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5994,34 +6200,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6030,53 +6224,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6084,26 +6290,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7018,8 +7227,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}" name="Table5" displayName="Table5" ref="A1:D14" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98">
-  <autoFilter ref="A1:D14" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}" name="Table5" displayName="Table5" ref="A1:D15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98">
+  <autoFilter ref="A1:D15" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F494DF5D-709B-4939-BEF8-065BE31D54A5}" name="What we're doing" dataDxfId="97"/>
     <tableColumn id="2" xr3:uid="{2CEA16F5-1272-49B8-8D02-F136DC5C9E39}" name="Code" dataDxfId="96"/>
@@ -7112,8 +7321,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0" dataDxfId="89">
-  <autoFilter ref="A1:E19" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0" dataDxfId="89">
+  <autoFilter ref="A1:E20" xr:uid="{742A4C2F-308B-485E-BAD6-21C1E739549C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{87C5A738-EC60-406D-9D4A-8EC749FFE9F1}" name="What we're doing" dataDxfId="88"/>
     <tableColumn id="2" xr3:uid="{CF6B9D06-2B28-4E68-809D-AF9F80440C99}" name="Code" dataDxfId="87"/>
@@ -7166,8 +7375,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D63D81E-768B-4B4F-87FB-50FD435769C2}" name="Table3" displayName="Table3" ref="A1:E11" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
-  <autoFilter ref="A1:E11" xr:uid="{1D63D81E-768B-4B4F-87FB-50FD435769C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D63D81E-768B-4B4F-87FB-50FD435769C2}" name="Table3" displayName="Table3" ref="A1:E12" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59">
+  <autoFilter ref="A1:E12" xr:uid="{1D63D81E-768B-4B4F-87FB-50FD435769C2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{882C8D30-B6E5-4155-B8C8-1392D8442392}" name="What we're doing" dataDxfId="58"/>
     <tableColumn id="2" xr3:uid="{042D1987-8045-418B-9FF7-9254A8047C93}" name="Code" dataDxfId="57"/>
@@ -7466,10 +7675,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F423F3CB-4ABB-497C-821E-58368615CB34}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7497,160 +7706,174 @@
     </row>
     <row r="2" spans="1:4" ht="150">
       <c r="A2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
       <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="120">
       <c r="A4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="225">
       <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="300">
       <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="165">
       <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="270">
       <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="180">
       <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="90">
       <c r="A10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
       <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="180">
       <c r="A12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="210">
       <c r="A13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="63.75">
       <c r="A14" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>352</v>
+        <v>345</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45">
+      <c r="A15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7695,18 +7918,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60">
       <c r="A2" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7750,37 +7973,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="105">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7795,8 +8018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87179907-4FD1-4D78-B59B-9D41D9D2BE6B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7808,21 +8031,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7832,23 +8055,23 @@
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" ht="105">
       <c r="A4" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>242</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>244</v>
       </c>
       <c r="D4" s="24" t="e" vm="12">
         <v>#VALUE!</v>
@@ -7856,10 +8079,10 @@
     </row>
     <row r="5" spans="1:4" ht="60">
       <c r="A5" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="e" vm="13">
@@ -7868,70 +8091,70 @@
     </row>
     <row r="6" spans="1:4" ht="150">
       <c r="A6" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="105">
       <c r="A7" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="90">
       <c r="A8" s="35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="105">
       <c r="A9" s="24" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" ht="75">
       <c r="A10" s="38" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D10" s="24" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="56" t="s">
-        <v>377</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>378</v>
+      <c r="A11" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>370</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -7948,7 +8171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B3B599-2C6A-4CA8-B2F0-63091B448B87}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -7956,7 +8179,7 @@
   <cols>
     <col min="1" max="1" width="38.42578125" style="30" customWidth="1"/>
     <col min="2" max="2" width="71.5703125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="78.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="90" style="30" customWidth="1"/>
     <col min="4" max="4" width="87.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.140625" style="30" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="30"/>
@@ -7976,43 +8199,43 @@
         <v>3</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
       <c r="A2" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>250</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>252</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="195">
       <c r="A3" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>255</v>
-      </c>
       <c r="D3" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" ht="360">
       <c r="A4" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -8020,49 +8243,49 @@
     </row>
     <row r="5" spans="1:5" ht="240">
       <c r="A5" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>262</v>
-      </c>
       <c r="D5" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" ht="405">
       <c r="A6" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5" ht="195">
+    <row r="7" spans="1:5" ht="180">
       <c r="A7" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" s="34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="31"/>
@@ -8070,10 +8293,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -8081,25 +8304,25 @@
     </row>
     <row r="10" spans="1:5" ht="180">
       <c r="A10" s="39" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>297</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>303</v>
       </c>
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="165">
       <c r="A11" s="39" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -8107,64 +8330,66 @@
     </row>
     <row r="12" spans="1:5" ht="135">
       <c r="A12" s="42" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="315">
+    <row r="13" spans="1:5" ht="409.5">
       <c r="A13" s="42" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="31"/>
+        <v>300</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>303</v>
+      </c>
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" ht="105">
       <c r="A14" s="42" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" ht="180">
       <c r="A15" s="39" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" ht="90">
       <c r="A16" s="46" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
@@ -8172,10 +8397,10 @@
     </row>
     <row r="17" spans="1:5" ht="225">
       <c r="A17" s="46" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -8193,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C63454-64FF-4807-AE72-E52F6B402F7B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8220,74 +8445,74 @@
         <v>3</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="135">
       <c r="A2" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>359</v>
+        <v>340</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>351</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="180">
       <c r="A3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105">
+      <c r="A5" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="150">
+      <c r="A6" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="105">
-      <c r="A5" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="150">
-      <c r="A6" s="50" t="s">
-        <v>366</v>
-      </c>
       <c r="B6" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="50" t="s">
         <v>368</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -8304,7 +8529,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8316,7 +8543,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8327,89 +8554,87 @@
     </row>
     <row r="2" spans="1:3" ht="90">
       <c r="A2" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="75">
+    <row r="3" spans="1:3" ht="120">
       <c r="A3" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>284</v>
+        <v>279</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180">
       <c r="A4" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>285</v>
+        <v>275</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>376</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120">
       <c r="A5" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>121</v>
+        <v>276</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>120</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90">
       <c r="A6" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>122</v>
+        <v>277</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="180">
       <c r="A7" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>281</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="180">
-      <c r="A8" s="37" t="s">
-        <v>281</v>
+      <c r="A8" s="58" t="s">
+        <v>380</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="165">
-      <c r="A9" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>203</v>
-      </c>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
+      <c r="A9" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8423,10 +8648,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8452,19 +8677,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="135">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -8481,122 +8706,122 @@
     </row>
     <row r="4" spans="1:5" ht="75">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="45">
       <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="60">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="60">
       <c r="A7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="60">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="30">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="45">
       <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="85.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8606,29 +8831,29 @@
     </row>
     <row r="13" spans="1:5" ht="60">
       <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="75" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="1" t="e" vm="2">
         <v>#VALUE!</v>
@@ -8636,13 +8861,13 @@
     </row>
     <row r="15" spans="1:5" ht="123.75" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="e" vm="3">
@@ -8651,16 +8876,16 @@
     </row>
     <row r="16" spans="1:5" ht="45">
       <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="1" t="e" vm="4">
         <v>#VALUE!</v>
@@ -8668,42 +8893,55 @@
     </row>
     <row r="17" spans="1:5" ht="45">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="60">
       <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="135">
       <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="120">
+      <c r="A20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8720,7 +8958,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8744,87 +8982,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="105">
       <c r="A6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45">
       <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="180">
+      <c r="A8" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="180">
-      <c r="A8" s="53" t="s">
-        <v>369</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>371</v>
+      <c r="A9" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -8841,7 +9079,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8856,103 +9094,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="45" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40.5">
       <c r="A2" s="43" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>313</v>
+      </c>
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:5" ht="60">
       <c r="A3" s="43" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>323</v>
+        <v>315</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="43" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40.5">
       <c r="A5" s="43" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="43" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="43" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -8969,7 +9205,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8998,178 +9234,180 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="150">
       <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>372</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="60">
       <c r="A4" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>373</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>365</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90">
       <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="C5" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="90">
       <c r="A6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="120">
       <c r="A7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="30">
       <c r="A10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="210">
       <c r="A13" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>206</v>
+        <v>227</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="180">
       <c r="A14" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" ht="150">
       <c r="A15" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>375</v>
+        <v>229</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>367</v>
       </c>
       <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" ht="30">
       <c r="A16" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="60">
-      <c r="A17" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>347</v>
+      <c r="A17" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -9183,10 +9421,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32920BEC-367E-46F0-97DF-79D2A69A379E}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9213,18 +9451,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="210">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E2" s="1" t="e" vm="5">
         <v>#VALUE!</v>
@@ -9232,101 +9470,112 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60">
       <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
       <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105">
       <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45">
       <c r="A10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75">
       <c r="A11" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>228</v>
+    </row>
+    <row r="12" spans="1:5" ht="165">
+      <c r="A12" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -9342,7 +9591,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9370,18 +9619,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="255">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -9425,35 +9674,35 @@
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45">
       <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135">
       <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="1" t="e" vm="6">
         <v>#VALUE!</v>
@@ -9461,13 +9710,13 @@
     </row>
     <row r="4" spans="1:5" ht="135">
       <c r="A4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E4" s="1" t="e" vm="7">
         <v>#VALUE!</v>
@@ -9475,13 +9724,13 @@
     </row>
     <row r="5" spans="1:5" ht="135">
       <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E5" s="1" t="e" vm="8">
         <v>#VALUE!</v>
@@ -9489,24 +9738,24 @@
     </row>
     <row r="6" spans="1:5" ht="105">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="111" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E7" s="1" t="e" vm="9">
         <v>#VALUE!</v>
@@ -9514,13 +9763,13 @@
     </row>
     <row r="8" spans="1:5" ht="140.25" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="1" t="e" vm="10">

--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C6450E-7D6F-473C-87CF-55DAFB369ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D63E2-EAE5-493A-9248-862E9B35844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-885" windowWidth="29040" windowHeight="15720" tabRatio="685" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -5788,12 +5788,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6134,88 +6141,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6224,35 +6231,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6260,43 +6279,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6305,13 +6318,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8957,8 +8964,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9591,8 +9598,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
+++ b/Python, NumPy, Pandas, MatPlotLib, Scikit-learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D63E2-EAE5-493A-9248-862E9B35844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D0DA1-031E-4B6C-A55C-F960299DE986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="685" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31095" yWindow="2295" windowWidth="21600" windowHeight="11295" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Intermediate" sheetId="7" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="393">
   <si>
     <t>What we're doing</t>
   </si>
@@ -1422,7 +1422,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
@@ -1452,7 +1452,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> learning task. The goal with this is to </t>
@@ -1473,7 +1473,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> similarity, and </t>
@@ -1494,7 +1494,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
@@ -1520,7 +1520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>) and you use an algorithm to hopefully make it more understandable, as well as to discover general trends within the data.</t>
@@ -1591,7 +1591,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1615,7 +1615,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>- Number of data points</t>
@@ -1637,7 +1637,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>- Number of dimensions to the data</t>
@@ -1659,7 +1659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>- The number of clusters to generate</t>
@@ -1681,7 +1681,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Basically how spread out the data is</t>
@@ -1703,7 +1703,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Randomly shuffles data values which have already been created)
@@ -1725,7 +1725,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Generates the same random data every time</t>
@@ -1763,7 +1763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> code here ends up being used once, as it's used to generate a dataset for which to use. To use the </t>
@@ -1784,7 +1784,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> code, first of all, we need to import it using </t>
@@ -1805,7 +1805,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1826,7 +1826,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. Underneath, we create the blob using the </t>
@@ -1847,7 +1847,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> function, and save two variables, x and y. x and y don't refer to the x and y coordinates of the data being produced respectively: </t>
@@ -1868,7 +1868,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> holds the coordinates, and </t>
@@ -1889,7 +1889,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> holds the labels/target values for each of the points, which is determined by </t>
@@ -1910,7 +1910,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1932,7 +1932,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> has a number of attributes you can pass through, the three required ones are </t>
@@ -1953,7 +1953,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, which determines the number of data points, </t>
@@ -1974,7 +1974,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for determining the dimensions of the data, and </t>
@@ -1995,7 +1995,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for determining the number of clusters to generate. The other attributes, although useful, are optional.</t>
@@ -2449,7 +2449,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -2483,7 +2483,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Creates 150 pieces of data
@@ -2505,7 +2505,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Makes the data three dimensional (e.g. the data would be: ([3, 4, 5], [5, 6, 1], [9, 0, 1]… etc))
@@ -2527,7 +2527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - The number of clusters of data to generate
@@ -2549,7 +2549,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - How spread out the data is. The closer to 0, the more compressed the data points, the closer to 1 the more spread
@@ -2571,7 +2571,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Shuffles the data once it has already been generated. It doesn't affect the data if/when it's plotted: it just randomises the order in which data appears in the dataset
@@ -2593,7 +2593,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Generates the same random data every time. Used for reproductability
@@ -2615,7 +2615,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Makes the range of the data between -10 to 10</t>
@@ -3228,7 +3228,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">would be left/right breast, tumour size, age, and whether it's been irradiated or not, and the </t>
@@ -3693,7 +3693,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -4199,9 +4199,6 @@
     <t>Create a virtual environment</t>
   </si>
   <si>
-    <t>This creates a virtual environment, easily allowing you to install packages and manage version control within the program. Very useful if you're struggling to install modles to your program.</t>
-  </si>
-  <si>
     <t># Create a virtual environment
 python -m venv my_env
 # Activate the virtual environment:
@@ -4239,7 +4236,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - This line imports the Sequential class from the Keras models module, allowing us to create a linear stack of neural network layers
@@ -4261,7 +4258,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">- This line imports the Dense class from the Keras layers module, enabling us to add fully connected layers to our neural network model
@@ -4283,7 +4280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>- This line imports the plot_model function from the Keras utils module, which allows us to visualize the architecture of our neural network model as a plot.</t>
@@ -4311,7 +4308,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"># First layer, one input (x), 5 neurons
@@ -4334,7 +4331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"># Second layer, 3 neurons
@@ -4357,7 +4354,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"># One output, y (hopefully sine (x)!). The output layer has to have one neuron
@@ -4380,7 +4377,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"># Build our ANN
@@ -4403,7 +4400,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"># Produce a summary of the data
@@ -4905,7 +4902,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the </t>
@@ -4926,7 +4923,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> of the </t>
@@ -4947,7 +4944,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> and </t>
@@ -5783,17 +5780,115 @@
   <si>
     <t>Always make the header=None, as this means that when you add the columns later on, you're not destroying any data</t>
   </si>
+  <si>
+    <t>This creates a virtual environment, easily allowing you to install packages and manage version control within the program. Very useful if you're struggling to install modles to your program. You have to activate it when you want it to be running, and then reactivate it every time you start again</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To deactivate it, you simply write </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deactivate</t>
+    </r>
+  </si>
+  <si>
+    <t>Install from pip</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard install:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pip install [package]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Install a list of packages from a .txt file:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pip install -r [list.txt]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pretty self explanitory. If you have a complicated piece of code with multiple packages, then it is highly recommended that you using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and then provide a .txt file in order to install all the requirements necessary.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6134,95 +6229,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6231,35 +6326,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6267,17 +6374,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6285,40 +6389,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7234,8 +7335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}" name="Table5" displayName="Table5" ref="A1:D15" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98">
-  <autoFilter ref="A1:D15" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}" name="Table5" displayName="Table5" ref="A1:D16" totalsRowShown="0" headerRowDxfId="101" dataDxfId="99" headerRowBorderDxfId="100" tableBorderDxfId="98">
+  <autoFilter ref="A1:D16" xr:uid="{E77E11D7-EA05-48EB-A42A-4EC595E6BC7C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F494DF5D-709B-4939-BEF8-065BE31D54A5}" name="What we're doing" dataDxfId="97"/>
     <tableColumn id="2" xr3:uid="{2CEA16F5-1272-49B8-8D02-F136DC5C9E39}" name="Code" dataDxfId="96"/>
@@ -7682,10 +7783,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F423F3CB-4ABB-497C-821E-58368615CB34}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7863,24 +7964,38 @@
         <v>343</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="48" t="s">
         <v>344</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45">
       <c r="A15" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="60" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>384</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="D15" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="D15" s="61" t="s">
-        <v>386</v>
+    </row>
+    <row r="16" spans="1:4" ht="60">
+      <c r="A16" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -8157,11 +8272,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>369</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>370</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -8358,7 +8473,7 @@
         <v>300</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>303</v>
@@ -8459,67 +8574,67 @@
       <c r="A2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>351</v>
+      <c r="B2" s="48" t="s">
+        <v>350</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="180">
       <c r="A3" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>352</v>
+      <c r="B3" s="48" t="s">
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45">
       <c r="A4" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D4" s="49" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="105">
+      <c r="A5" s="49" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="105">
-      <c r="A5" s="50" t="s">
+      <c r="B5" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B5" s="51" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="150">
+      <c r="A6" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="150">
-      <c r="A6" s="49" t="s">
+      <c r="B6" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>359</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -8572,19 +8687,19 @@
       <c r="A3" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>374</v>
+      <c r="B3" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="180">
       <c r="A4" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>376</v>
+      <c r="B4" s="58" t="s">
+        <v>375</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>280</v>
@@ -8594,7 +8709,7 @@
       <c r="A5" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -8605,7 +8720,7 @@
       <c r="A6" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -8616,7 +8731,7 @@
       <c r="A7" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>281</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -8624,8 +8739,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="180">
-      <c r="A8" s="58" t="s">
-        <v>380</v>
+      <c r="A8" s="57" t="s">
+        <v>379</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>122</v>
@@ -8635,11 +8750,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="45">
-      <c r="A9" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="B9" s="60" t="s">
+      <c r="A9" s="57" t="s">
         <v>378</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>377</v>
       </c>
       <c r="C9" s="20"/>
     </row>
@@ -8716,7 +8831,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -8939,13 +9054,13 @@
     </row>
     <row r="20" spans="1:5" ht="120">
       <c r="A20" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>371</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>372</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -8964,7 +9079,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -9054,8 +9169,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="180">
-      <c r="A8" s="52" t="s">
-        <v>361</v>
+      <c r="A8" s="51" t="s">
+        <v>360</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>179</v>
@@ -9065,11 +9180,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>362</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -9126,7 +9241,7 @@
       <c r="C2" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="60">
       <c r="A3" s="43" t="s">
@@ -9138,8 +9253,8 @@
       <c r="C3" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>373</v>
+      <c r="D3" s="55" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
@@ -9248,8 +9363,8 @@
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>364</v>
+      <c r="B2" s="52" t="s">
+        <v>363</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -9263,21 +9378,21 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60">
       <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>365</v>
+      <c r="B4" s="52" t="s">
+        <v>364</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>55</v>
@@ -9287,7 +9402,7 @@
       <c r="A5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -9370,10 +9485,10 @@
       <c r="A13" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" s="53" t="s">
+      <c r="B13" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>204</v>
       </c>
     </row>
@@ -9390,8 +9505,8 @@
       <c r="A15" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>367</v>
+      <c r="B15" s="52" t="s">
+        <v>366</v>
       </c>
       <c r="C15" s="22"/>
     </row>
@@ -9399,7 +9514,7 @@
       <c r="A16" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>232</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -9410,7 +9525,7 @@
       <c r="A17" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="53" t="s">
         <v>338</v>
       </c>
       <c r="C17" s="47" t="s">
@@ -9630,7 +9745,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="255">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
